--- a/financial_models/Opportunities/Monitor/Monitor.xlsx
+++ b/financial_models/Opportunities/Monitor/Monitor.xlsx
@@ -1,34 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11113"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jerry.chen\PycharmProjects\InvestmentProject\financial_models\Opportunities\Monitor\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kamanl/PycharmProjects/InvestmentManagement/financial_models/Opportunities/Monitor/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39E77BB8-83AE-4D9E-AE68-F0A753B357AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF5A4CB4-2BC5-E243-AC43-55A9B0102B75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Opportunities" sheetId="1" r:id="rId1"/>
     <sheet name="Current_Holdings" sheetId="3" r:id="rId2"/>
-    <sheet name="Discount rates" sheetId="4" r:id="rId3"/>
+    <sheet name="Market" sheetId="4" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Current_Holdings!$B$6:$J$6</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Opportunities!$B$4:$N$4</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
         <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -1185,20 +1188,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:N200"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="M15" sqref="M15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="2.453125" customWidth="1"/>
-    <col min="2" max="11" width="14.54296875" customWidth="1"/>
-    <col min="12" max="12" width="16.7265625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="16.7265625" customWidth="1"/>
-    <col min="14" max="14" width="14.54296875" customWidth="1"/>
+    <col min="1" max="1" width="2.5" customWidth="1"/>
+    <col min="2" max="11" width="14.5" customWidth="1"/>
+    <col min="12" max="12" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="16.6640625" customWidth="1"/>
+    <col min="14" max="14" width="14.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
       <c r="B2" s="3" t="s">
         <v>0</v>
@@ -1216,7 +1219,7 @@
       <c r="M2" s="15"/>
       <c r="N2" s="15"/>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B4" s="4" t="s">
         <v>1</v>
       </c>
@@ -1257,7 +1260,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B5" s="5" t="s">
         <v>14</v>
       </c>
@@ -1300,7 +1303,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B6" s="5"/>
       <c r="C6" s="5"/>
       <c r="D6" s="5"/>
@@ -1314,7 +1317,7 @@
       <c r="L6" s="8"/>
       <c r="M6" s="8"/>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B7" s="5"/>
       <c r="C7" s="5"/>
       <c r="D7" s="5"/>
@@ -1328,7 +1331,7 @@
       <c r="L7" s="8"/>
       <c r="M7" s="8"/>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B8" s="5"/>
       <c r="C8" s="5"/>
       <c r="D8" s="5"/>
@@ -1342,7 +1345,7 @@
       <c r="L8" s="8"/>
       <c r="M8" s="8"/>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B9" s="5"/>
       <c r="C9" s="5"/>
       <c r="D9" s="5"/>
@@ -1356,7 +1359,7 @@
       <c r="L9" s="8"/>
       <c r="M9" s="8"/>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
       <c r="D10" s="5"/>
@@ -1370,7 +1373,7 @@
       <c r="L10" s="8"/>
       <c r="M10" s="8"/>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B11" s="5"/>
       <c r="C11" s="5"/>
       <c r="D11" s="5"/>
@@ -1384,7 +1387,7 @@
       <c r="L11" s="8"/>
       <c r="M11" s="8"/>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B12" s="5"/>
       <c r="C12" s="5"/>
       <c r="D12" s="5"/>
@@ -1398,7 +1401,7 @@
       <c r="L12" s="8"/>
       <c r="M12" s="8"/>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B13" s="5"/>
       <c r="C13" s="5"/>
       <c r="D13" s="5"/>
@@ -1412,7 +1415,7 @@
       <c r="L13" s="8"/>
       <c r="M13" s="8"/>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B14" s="5"/>
       <c r="C14" s="5"/>
       <c r="D14" s="5"/>
@@ -1426,7 +1429,7 @@
       <c r="L14" s="8"/>
       <c r="M14" s="8"/>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B15" s="5"/>
       <c r="C15" s="5"/>
       <c r="D15" s="5"/>
@@ -1440,7 +1443,7 @@
       <c r="L15" s="8"/>
       <c r="M15" s="8"/>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B16" s="5"/>
       <c r="C16" s="5"/>
       <c r="D16" s="5"/>
@@ -1454,7 +1457,7 @@
       <c r="L16" s="8"/>
       <c r="M16" s="8"/>
     </row>
-    <row r="17" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B17" s="5"/>
       <c r="C17" s="5"/>
       <c r="D17" s="5"/>
@@ -1468,7 +1471,7 @@
       <c r="L17" s="8"/>
       <c r="M17" s="8"/>
     </row>
-    <row r="18" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B18" s="5"/>
       <c r="C18" s="5"/>
       <c r="D18" s="5"/>
@@ -1482,7 +1485,7 @@
       <c r="L18" s="8"/>
       <c r="M18" s="8"/>
     </row>
-    <row r="19" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B19" s="5"/>
       <c r="C19" s="5"/>
       <c r="D19" s="5"/>
@@ -1496,7 +1499,7 @@
       <c r="L19" s="8"/>
       <c r="M19" s="8"/>
     </row>
-    <row r="20" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B20" s="5"/>
       <c r="C20" s="5"/>
       <c r="D20" s="5"/>
@@ -1510,7 +1513,7 @@
       <c r="L20" s="8"/>
       <c r="M20" s="8"/>
     </row>
-    <row r="21" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B21" s="5"/>
       <c r="C21" s="5"/>
       <c r="D21" s="5"/>
@@ -1524,7 +1527,7 @@
       <c r="L21" s="8"/>
       <c r="M21" s="8"/>
     </row>
-    <row r="22" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B22" s="5"/>
       <c r="C22" s="5"/>
       <c r="D22" s="5"/>
@@ -1538,7 +1541,7 @@
       <c r="L22" s="8"/>
       <c r="M22" s="8"/>
     </row>
-    <row r="23" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B23" s="5"/>
       <c r="C23" s="5"/>
       <c r="D23" s="5"/>
@@ -1552,7 +1555,7 @@
       <c r="L23" s="8"/>
       <c r="M23" s="8"/>
     </row>
-    <row r="24" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B24" s="5"/>
       <c r="C24" s="5"/>
       <c r="D24" s="5"/>
@@ -1566,7 +1569,7 @@
       <c r="L24" s="8"/>
       <c r="M24" s="8"/>
     </row>
-    <row r="25" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B25" s="5"/>
       <c r="C25" s="5"/>
       <c r="D25" s="5"/>
@@ -1580,7 +1583,7 @@
       <c r="L25" s="8"/>
       <c r="M25" s="8"/>
     </row>
-    <row r="26" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="26" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B26" s="5"/>
       <c r="C26" s="5"/>
       <c r="D26" s="5"/>
@@ -1594,7 +1597,7 @@
       <c r="L26" s="8"/>
       <c r="M26" s="8"/>
     </row>
-    <row r="27" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="27" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B27" s="5"/>
       <c r="C27" s="5"/>
       <c r="D27" s="5"/>
@@ -1608,7 +1611,7 @@
       <c r="L27" s="8"/>
       <c r="M27" s="8"/>
     </row>
-    <row r="28" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="28" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B28" s="5"/>
       <c r="C28" s="5"/>
       <c r="D28" s="5"/>
@@ -1622,7 +1625,7 @@
       <c r="L28" s="8"/>
       <c r="M28" s="8"/>
     </row>
-    <row r="29" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="29" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B29" s="5"/>
       <c r="C29" s="5"/>
       <c r="D29" s="5"/>
@@ -1636,7 +1639,7 @@
       <c r="L29" s="8"/>
       <c r="M29" s="8"/>
     </row>
-    <row r="30" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="30" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B30" s="5"/>
       <c r="C30" s="5"/>
       <c r="D30" s="5"/>
@@ -1650,7 +1653,7 @@
       <c r="L30" s="8"/>
       <c r="M30" s="8"/>
     </row>
-    <row r="31" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="31" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B31" s="5"/>
       <c r="C31" s="5"/>
       <c r="D31" s="5"/>
@@ -1664,7 +1667,7 @@
       <c r="L31" s="8"/>
       <c r="M31" s="8"/>
     </row>
-    <row r="32" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="32" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B32" s="5"/>
       <c r="C32" s="5"/>
       <c r="D32" s="5"/>
@@ -1678,7 +1681,7 @@
       <c r="L32" s="8"/>
       <c r="M32" s="8"/>
     </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B33" s="5"/>
       <c r="C33" s="5"/>
       <c r="D33" s="5"/>
@@ -1692,7 +1695,7 @@
       <c r="L33" s="8"/>
       <c r="M33" s="8"/>
     </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B34" s="5"/>
       <c r="C34" s="5"/>
       <c r="D34" s="5"/>
@@ -1706,7 +1709,7 @@
       <c r="L34" s="8"/>
       <c r="M34" s="8"/>
     </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B35" s="5"/>
       <c r="C35" s="5"/>
       <c r="D35" s="5"/>
@@ -1720,7 +1723,7 @@
       <c r="L35" s="8"/>
       <c r="M35" s="8"/>
     </row>
-    <row r="36" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="36" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B36" s="5"/>
       <c r="C36" s="5"/>
       <c r="D36" s="5"/>
@@ -1734,7 +1737,7 @@
       <c r="L36" s="8"/>
       <c r="M36" s="8"/>
     </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B37" s="5"/>
       <c r="C37" s="5"/>
       <c r="D37" s="5"/>
@@ -1748,7 +1751,7 @@
       <c r="L37" s="8"/>
       <c r="M37" s="8"/>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B38" s="5"/>
       <c r="C38" s="5"/>
       <c r="D38" s="5"/>
@@ -1762,7 +1765,7 @@
       <c r="L38" s="8"/>
       <c r="M38" s="8"/>
     </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B39" s="5"/>
       <c r="C39" s="5"/>
       <c r="D39" s="5"/>
@@ -1776,7 +1779,7 @@
       <c r="L39" s="8"/>
       <c r="M39" s="8"/>
     </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B40" s="5"/>
       <c r="C40" s="5"/>
       <c r="D40" s="5"/>
@@ -1790,7 +1793,7 @@
       <c r="L40" s="8"/>
       <c r="M40" s="8"/>
     </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B41" s="5"/>
       <c r="C41" s="5"/>
       <c r="D41" s="5"/>
@@ -1804,7 +1807,7 @@
       <c r="L41" s="8"/>
       <c r="M41" s="8"/>
     </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B42" s="5"/>
       <c r="C42" s="5"/>
       <c r="D42" s="5"/>
@@ -1818,7 +1821,7 @@
       <c r="L42" s="8"/>
       <c r="M42" s="8"/>
     </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B43" s="5"/>
       <c r="C43" s="5"/>
       <c r="D43" s="5"/>
@@ -1832,7 +1835,7 @@
       <c r="L43" s="8"/>
       <c r="M43" s="8"/>
     </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B44" s="5"/>
       <c r="C44" s="5"/>
       <c r="D44" s="5"/>
@@ -1846,7 +1849,7 @@
       <c r="L44" s="8"/>
       <c r="M44" s="8"/>
     </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B45" s="5"/>
       <c r="C45" s="5"/>
       <c r="D45" s="5"/>
@@ -1860,7 +1863,7 @@
       <c r="L45" s="8"/>
       <c r="M45" s="8"/>
     </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B46" s="5"/>
       <c r="C46" s="5"/>
       <c r="D46" s="5"/>
@@ -1874,7 +1877,7 @@
       <c r="L46" s="8"/>
       <c r="M46" s="8"/>
     </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B47" s="5"/>
       <c r="C47" s="5"/>
       <c r="D47" s="5"/>
@@ -1888,7 +1891,7 @@
       <c r="L47" s="8"/>
       <c r="M47" s="8"/>
     </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B48" s="5"/>
       <c r="C48" s="5"/>
       <c r="D48" s="5"/>
@@ -1902,7 +1905,7 @@
       <c r="L48" s="8"/>
       <c r="M48" s="8"/>
     </row>
-    <row r="49" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="49" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B49" s="5"/>
       <c r="C49" s="5"/>
       <c r="D49" s="5"/>
@@ -1916,7 +1919,7 @@
       <c r="L49" s="8"/>
       <c r="M49" s="8"/>
     </row>
-    <row r="50" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="50" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B50" s="5"/>
       <c r="C50" s="5"/>
       <c r="D50" s="5"/>
@@ -1930,7 +1933,7 @@
       <c r="L50" s="8"/>
       <c r="M50" s="8"/>
     </row>
-    <row r="51" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="51" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B51" s="5"/>
       <c r="C51" s="5"/>
       <c r="D51" s="5"/>
@@ -1944,7 +1947,7 @@
       <c r="L51" s="8"/>
       <c r="M51" s="8"/>
     </row>
-    <row r="52" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="52" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B52" s="5"/>
       <c r="C52" s="5"/>
       <c r="D52" s="5"/>
@@ -1958,7 +1961,7 @@
       <c r="L52" s="8"/>
       <c r="M52" s="8"/>
     </row>
-    <row r="53" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="53" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B53" s="5"/>
       <c r="C53" s="5"/>
       <c r="D53" s="5"/>
@@ -1972,7 +1975,7 @@
       <c r="L53" s="8"/>
       <c r="M53" s="8"/>
     </row>
-    <row r="54" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="54" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B54" s="5"/>
       <c r="C54" s="5"/>
       <c r="D54" s="5"/>
@@ -1986,7 +1989,7 @@
       <c r="L54" s="8"/>
       <c r="M54" s="8"/>
     </row>
-    <row r="55" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="55" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B55" s="5"/>
       <c r="C55" s="5"/>
       <c r="D55" s="5"/>
@@ -2000,7 +2003,7 @@
       <c r="L55" s="8"/>
       <c r="M55" s="8"/>
     </row>
-    <row r="56" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="56" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B56" s="5"/>
       <c r="C56" s="5"/>
       <c r="D56" s="5"/>
@@ -2014,7 +2017,7 @@
       <c r="L56" s="8"/>
       <c r="M56" s="8"/>
     </row>
-    <row r="57" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="57" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B57" s="5"/>
       <c r="C57" s="5"/>
       <c r="D57" s="5"/>
@@ -2028,7 +2031,7 @@
       <c r="L57" s="8"/>
       <c r="M57" s="8"/>
     </row>
-    <row r="58" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="58" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B58" s="5"/>
       <c r="C58" s="5"/>
       <c r="D58" s="5"/>
@@ -2042,7 +2045,7 @@
       <c r="L58" s="8"/>
       <c r="M58" s="8"/>
     </row>
-    <row r="59" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="59" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B59" s="5"/>
       <c r="C59" s="5"/>
       <c r="D59" s="5"/>
@@ -2056,7 +2059,7 @@
       <c r="L59" s="8"/>
       <c r="M59" s="8"/>
     </row>
-    <row r="60" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="60" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B60" s="5"/>
       <c r="C60" s="5"/>
       <c r="D60" s="5"/>
@@ -2070,7 +2073,7 @@
       <c r="L60" s="8"/>
       <c r="M60" s="8"/>
     </row>
-    <row r="61" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="61" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B61" s="5"/>
       <c r="C61" s="5"/>
       <c r="D61" s="5"/>
@@ -2084,7 +2087,7 @@
       <c r="L61" s="8"/>
       <c r="M61" s="8"/>
     </row>
-    <row r="62" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="62" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B62" s="5"/>
       <c r="C62" s="5"/>
       <c r="D62" s="5"/>
@@ -2098,7 +2101,7 @@
       <c r="L62" s="8"/>
       <c r="M62" s="8"/>
     </row>
-    <row r="63" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="63" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B63" s="5"/>
       <c r="C63" s="5"/>
       <c r="D63" s="5"/>
@@ -2112,7 +2115,7 @@
       <c r="L63" s="8"/>
       <c r="M63" s="8"/>
     </row>
-    <row r="64" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="64" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B64" s="5"/>
       <c r="C64" s="5"/>
       <c r="D64" s="5"/>
@@ -2126,7 +2129,7 @@
       <c r="L64" s="8"/>
       <c r="M64" s="8"/>
     </row>
-    <row r="65" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B65" s="5"/>
       <c r="C65" s="5"/>
       <c r="D65" s="5"/>
@@ -2140,7 +2143,7 @@
       <c r="L65" s="8"/>
       <c r="M65" s="8"/>
     </row>
-    <row r="66" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B66" s="5"/>
       <c r="C66" s="5"/>
       <c r="D66" s="5"/>
@@ -2154,7 +2157,7 @@
       <c r="L66" s="8"/>
       <c r="M66" s="8"/>
     </row>
-    <row r="67" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B67" s="5"/>
       <c r="C67" s="5"/>
       <c r="D67" s="5"/>
@@ -2168,7 +2171,7 @@
       <c r="L67" s="8"/>
       <c r="M67" s="8"/>
     </row>
-    <row r="68" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B68" s="5"/>
       <c r="C68" s="5"/>
       <c r="D68" s="5"/>
@@ -2182,7 +2185,7 @@
       <c r="L68" s="8"/>
       <c r="M68" s="8"/>
     </row>
-    <row r="69" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B69" s="5"/>
       <c r="C69" s="5"/>
       <c r="D69" s="5"/>
@@ -2196,7 +2199,7 @@
       <c r="L69" s="8"/>
       <c r="M69" s="8"/>
     </row>
-    <row r="70" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B70" s="5"/>
       <c r="C70" s="5"/>
       <c r="D70" s="5"/>
@@ -2210,7 +2213,7 @@
       <c r="L70" s="8"/>
       <c r="M70" s="8"/>
     </row>
-    <row r="71" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B71" s="5"/>
       <c r="C71" s="5"/>
       <c r="D71" s="5"/>
@@ -2224,7 +2227,7 @@
       <c r="L71" s="8"/>
       <c r="M71" s="8"/>
     </row>
-    <row r="72" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B72" s="5"/>
       <c r="C72" s="5"/>
       <c r="D72" s="5"/>
@@ -2238,7 +2241,7 @@
       <c r="L72" s="8"/>
       <c r="M72" s="8"/>
     </row>
-    <row r="73" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B73" s="5"/>
       <c r="C73" s="5"/>
       <c r="D73" s="5"/>
@@ -2252,7 +2255,7 @@
       <c r="L73" s="8"/>
       <c r="M73" s="8"/>
     </row>
-    <row r="74" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B74" s="5"/>
       <c r="C74" s="5"/>
       <c r="D74" s="5"/>
@@ -2266,7 +2269,7 @@
       <c r="L74" s="8"/>
       <c r="M74" s="8"/>
     </row>
-    <row r="75" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B75" s="5"/>
       <c r="C75" s="5"/>
       <c r="D75" s="5"/>
@@ -2280,7 +2283,7 @@
       <c r="L75" s="8"/>
       <c r="M75" s="8"/>
     </row>
-    <row r="76" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B76" s="5"/>
       <c r="C76" s="5"/>
       <c r="D76" s="5"/>
@@ -2294,7 +2297,7 @@
       <c r="L76" s="8"/>
       <c r="M76" s="8"/>
     </row>
-    <row r="77" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B77" s="5"/>
       <c r="C77" s="5"/>
       <c r="D77" s="5"/>
@@ -2308,7 +2311,7 @@
       <c r="L77" s="8"/>
       <c r="M77" s="8"/>
     </row>
-    <row r="78" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="78" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B78" s="5"/>
       <c r="C78" s="5"/>
       <c r="D78" s="5"/>
@@ -2322,7 +2325,7 @@
       <c r="L78" s="8"/>
       <c r="M78" s="8"/>
     </row>
-    <row r="79" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B79" s="5"/>
       <c r="C79" s="5"/>
       <c r="D79" s="5"/>
@@ -2336,7 +2339,7 @@
       <c r="L79" s="8"/>
       <c r="M79" s="8"/>
     </row>
-    <row r="80" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B80" s="5"/>
       <c r="C80" s="5"/>
       <c r="D80" s="5"/>
@@ -2350,7 +2353,7 @@
       <c r="L80" s="8"/>
       <c r="M80" s="8"/>
     </row>
-    <row r="81" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="81" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B81" s="5"/>
       <c r="C81" s="5"/>
       <c r="D81" s="5"/>
@@ -2364,7 +2367,7 @@
       <c r="L81" s="8"/>
       <c r="M81" s="8"/>
     </row>
-    <row r="82" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="82" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B82" s="5"/>
       <c r="C82" s="5"/>
       <c r="D82" s="5"/>
@@ -2378,7 +2381,7 @@
       <c r="L82" s="8"/>
       <c r="M82" s="8"/>
     </row>
-    <row r="83" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="83" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B83" s="5"/>
       <c r="C83" s="5"/>
       <c r="D83" s="5"/>
@@ -2392,7 +2395,7 @@
       <c r="L83" s="8"/>
       <c r="M83" s="8"/>
     </row>
-    <row r="84" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="84" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B84" s="5"/>
       <c r="C84" s="5"/>
       <c r="D84" s="5"/>
@@ -2406,7 +2409,7 @@
       <c r="L84" s="8"/>
       <c r="M84" s="8"/>
     </row>
-    <row r="85" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="85" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B85" s="5"/>
       <c r="C85" s="5"/>
       <c r="D85" s="5"/>
@@ -2420,7 +2423,7 @@
       <c r="L85" s="8"/>
       <c r="M85" s="8"/>
     </row>
-    <row r="86" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="86" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B86" s="5"/>
       <c r="C86" s="5"/>
       <c r="D86" s="5"/>
@@ -2434,7 +2437,7 @@
       <c r="L86" s="8"/>
       <c r="M86" s="8"/>
     </row>
-    <row r="87" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="87" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B87" s="5"/>
       <c r="C87" s="5"/>
       <c r="D87" s="5"/>
@@ -2448,7 +2451,7 @@
       <c r="L87" s="8"/>
       <c r="M87" s="8"/>
     </row>
-    <row r="88" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="88" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B88" s="5"/>
       <c r="C88" s="5"/>
       <c r="D88" s="5"/>
@@ -2462,7 +2465,7 @@
       <c r="L88" s="8"/>
       <c r="M88" s="8"/>
     </row>
-    <row r="89" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="89" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B89" s="5"/>
       <c r="C89" s="5"/>
       <c r="D89" s="5"/>
@@ -2476,7 +2479,7 @@
       <c r="L89" s="8"/>
       <c r="M89" s="8"/>
     </row>
-    <row r="90" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="90" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B90" s="5"/>
       <c r="C90" s="5"/>
       <c r="D90" s="5"/>
@@ -2490,7 +2493,7 @@
       <c r="L90" s="8"/>
       <c r="M90" s="8"/>
     </row>
-    <row r="91" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="91" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B91" s="5"/>
       <c r="C91" s="5"/>
       <c r="D91" s="5"/>
@@ -2504,7 +2507,7 @@
       <c r="L91" s="8"/>
       <c r="M91" s="8"/>
     </row>
-    <row r="92" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="92" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B92" s="5"/>
       <c r="C92" s="5"/>
       <c r="D92" s="5"/>
@@ -2518,7 +2521,7 @@
       <c r="L92" s="8"/>
       <c r="M92" s="8"/>
     </row>
-    <row r="93" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="93" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B93" s="5"/>
       <c r="C93" s="5"/>
       <c r="D93" s="5"/>
@@ -2532,7 +2535,7 @@
       <c r="L93" s="8"/>
       <c r="M93" s="8"/>
     </row>
-    <row r="94" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="94" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B94" s="5"/>
       <c r="C94" s="5"/>
       <c r="D94" s="5"/>
@@ -2546,7 +2549,7 @@
       <c r="L94" s="8"/>
       <c r="M94" s="8"/>
     </row>
-    <row r="95" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="95" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B95" s="5"/>
       <c r="C95" s="5"/>
       <c r="D95" s="5"/>
@@ -2560,7 +2563,7 @@
       <c r="L95" s="8"/>
       <c r="M95" s="8"/>
     </row>
-    <row r="96" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="96" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B96" s="5"/>
       <c r="C96" s="5"/>
       <c r="D96" s="5"/>
@@ -2574,7 +2577,7 @@
       <c r="L96" s="8"/>
       <c r="M96" s="8"/>
     </row>
-    <row r="97" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="97" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B97" s="5"/>
       <c r="C97" s="5"/>
       <c r="D97" s="5"/>
@@ -2588,7 +2591,7 @@
       <c r="L97" s="8"/>
       <c r="M97" s="8"/>
     </row>
-    <row r="98" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="98" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B98" s="5"/>
       <c r="C98" s="5"/>
       <c r="D98" s="5"/>
@@ -2602,7 +2605,7 @@
       <c r="L98" s="8"/>
       <c r="M98" s="8"/>
     </row>
-    <row r="99" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="99" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B99" s="5"/>
       <c r="C99" s="5"/>
       <c r="D99" s="5"/>
@@ -2616,7 +2619,7 @@
       <c r="L99" s="8"/>
       <c r="M99" s="8"/>
     </row>
-    <row r="100" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="100" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B100" s="5"/>
       <c r="C100" s="5"/>
       <c r="D100" s="5"/>
@@ -2630,7 +2633,7 @@
       <c r="L100" s="8"/>
       <c r="M100" s="8"/>
     </row>
-    <row r="101" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="101" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B101" s="5"/>
       <c r="C101" s="5"/>
       <c r="D101" s="5"/>
@@ -2644,7 +2647,7 @@
       <c r="L101" s="8"/>
       <c r="M101" s="8"/>
     </row>
-    <row r="102" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="102" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B102" s="5"/>
       <c r="C102" s="5"/>
       <c r="D102" s="5"/>
@@ -2658,7 +2661,7 @@
       <c r="L102" s="8"/>
       <c r="M102" s="8"/>
     </row>
-    <row r="103" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="103" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B103" s="5"/>
       <c r="C103" s="5"/>
       <c r="D103" s="5"/>
@@ -2672,7 +2675,7 @@
       <c r="L103" s="8"/>
       <c r="M103" s="8"/>
     </row>
-    <row r="104" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="104" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B104" s="5"/>
       <c r="C104" s="5"/>
       <c r="D104" s="5"/>
@@ -2686,7 +2689,7 @@
       <c r="L104" s="8"/>
       <c r="M104" s="8"/>
     </row>
-    <row r="105" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="105" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B105" s="5"/>
       <c r="C105" s="5"/>
       <c r="D105" s="5"/>
@@ -2700,7 +2703,7 @@
       <c r="L105" s="8"/>
       <c r="M105" s="8"/>
     </row>
-    <row r="106" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="106" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B106" s="5"/>
       <c r="C106" s="5"/>
       <c r="D106" s="5"/>
@@ -2714,7 +2717,7 @@
       <c r="L106" s="8"/>
       <c r="M106" s="8"/>
     </row>
-    <row r="107" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="107" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B107" s="5"/>
       <c r="C107" s="5"/>
       <c r="D107" s="5"/>
@@ -2728,7 +2731,7 @@
       <c r="L107" s="8"/>
       <c r="M107" s="8"/>
     </row>
-    <row r="108" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="108" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B108" s="5"/>
       <c r="C108" s="5"/>
       <c r="D108" s="5"/>
@@ -2742,7 +2745,7 @@
       <c r="L108" s="8"/>
       <c r="M108" s="8"/>
     </row>
-    <row r="109" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="109" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B109" s="5"/>
       <c r="C109" s="5"/>
       <c r="D109" s="5"/>
@@ -2756,7 +2759,7 @@
       <c r="L109" s="8"/>
       <c r="M109" s="8"/>
     </row>
-    <row r="110" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="110" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B110" s="5"/>
       <c r="C110" s="5"/>
       <c r="D110" s="5"/>
@@ -2770,7 +2773,7 @@
       <c r="L110" s="8"/>
       <c r="M110" s="8"/>
     </row>
-    <row r="111" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="111" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B111" s="5"/>
       <c r="C111" s="5"/>
       <c r="D111" s="5"/>
@@ -2784,7 +2787,7 @@
       <c r="L111" s="8"/>
       <c r="M111" s="8"/>
     </row>
-    <row r="112" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="112" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B112" s="5"/>
       <c r="C112" s="5"/>
       <c r="D112" s="5"/>
@@ -2798,7 +2801,7 @@
       <c r="L112" s="8"/>
       <c r="M112" s="8"/>
     </row>
-    <row r="113" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="113" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B113" s="5"/>
       <c r="C113" s="5"/>
       <c r="D113" s="5"/>
@@ -2812,7 +2815,7 @@
       <c r="L113" s="8"/>
       <c r="M113" s="8"/>
     </row>
-    <row r="114" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="114" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B114" s="5"/>
       <c r="C114" s="5"/>
       <c r="D114" s="5"/>
@@ -2826,7 +2829,7 @@
       <c r="L114" s="8"/>
       <c r="M114" s="8"/>
     </row>
-    <row r="115" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="115" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B115" s="5"/>
       <c r="C115" s="5"/>
       <c r="D115" s="5"/>
@@ -2840,7 +2843,7 @@
       <c r="L115" s="8"/>
       <c r="M115" s="8"/>
     </row>
-    <row r="116" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="116" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B116" s="5"/>
       <c r="C116" s="5"/>
       <c r="D116" s="5"/>
@@ -2854,7 +2857,7 @@
       <c r="L116" s="8"/>
       <c r="M116" s="8"/>
     </row>
-    <row r="117" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="117" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B117" s="5"/>
       <c r="C117" s="5"/>
       <c r="D117" s="5"/>
@@ -2868,7 +2871,7 @@
       <c r="L117" s="8"/>
       <c r="M117" s="8"/>
     </row>
-    <row r="118" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="118" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B118" s="5"/>
       <c r="C118" s="5"/>
       <c r="D118" s="5"/>
@@ -2882,7 +2885,7 @@
       <c r="L118" s="8"/>
       <c r="M118" s="8"/>
     </row>
-    <row r="119" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="119" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B119" s="5"/>
       <c r="C119" s="5"/>
       <c r="D119" s="5"/>
@@ -2896,7 +2899,7 @@
       <c r="L119" s="8"/>
       <c r="M119" s="8"/>
     </row>
-    <row r="120" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="120" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B120" s="5"/>
       <c r="C120" s="5"/>
       <c r="D120" s="5"/>
@@ -2910,7 +2913,7 @@
       <c r="L120" s="8"/>
       <c r="M120" s="8"/>
     </row>
-    <row r="121" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="121" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B121" s="5"/>
       <c r="C121" s="5"/>
       <c r="D121" s="5"/>
@@ -2924,7 +2927,7 @@
       <c r="L121" s="8"/>
       <c r="M121" s="8"/>
     </row>
-    <row r="122" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="122" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B122" s="5"/>
       <c r="C122" s="5"/>
       <c r="D122" s="5"/>
@@ -2938,7 +2941,7 @@
       <c r="L122" s="8"/>
       <c r="M122" s="8"/>
     </row>
-    <row r="123" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="123" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B123" s="5"/>
       <c r="C123" s="5"/>
       <c r="D123" s="5"/>
@@ -2952,7 +2955,7 @@
       <c r="L123" s="8"/>
       <c r="M123" s="8"/>
     </row>
-    <row r="124" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="124" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B124" s="5"/>
       <c r="C124" s="5"/>
       <c r="D124" s="5"/>
@@ -2966,7 +2969,7 @@
       <c r="L124" s="8"/>
       <c r="M124" s="8"/>
     </row>
-    <row r="125" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="125" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B125" s="5"/>
       <c r="C125" s="5"/>
       <c r="D125" s="5"/>
@@ -2980,7 +2983,7 @@
       <c r="L125" s="8"/>
       <c r="M125" s="8"/>
     </row>
-    <row r="126" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="126" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B126" s="5"/>
       <c r="C126" s="5"/>
       <c r="D126" s="5"/>
@@ -2994,7 +2997,7 @@
       <c r="L126" s="8"/>
       <c r="M126" s="8"/>
     </row>
-    <row r="127" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="127" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B127" s="5"/>
       <c r="C127" s="5"/>
       <c r="D127" s="5"/>
@@ -3008,7 +3011,7 @@
       <c r="L127" s="8"/>
       <c r="M127" s="8"/>
     </row>
-    <row r="128" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="128" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B128" s="5"/>
       <c r="C128" s="5"/>
       <c r="D128" s="5"/>
@@ -3022,7 +3025,7 @@
       <c r="L128" s="8"/>
       <c r="M128" s="8"/>
     </row>
-    <row r="129" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="129" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B129" s="5"/>
       <c r="C129" s="5"/>
       <c r="D129" s="5"/>
@@ -3036,7 +3039,7 @@
       <c r="L129" s="8"/>
       <c r="M129" s="8"/>
     </row>
-    <row r="130" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="130" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B130" s="5"/>
       <c r="C130" s="5"/>
       <c r="D130" s="5"/>
@@ -3050,7 +3053,7 @@
       <c r="L130" s="8"/>
       <c r="M130" s="8"/>
     </row>
-    <row r="131" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="131" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B131" s="5"/>
       <c r="C131" s="5"/>
       <c r="D131" s="5"/>
@@ -3064,7 +3067,7 @@
       <c r="L131" s="8"/>
       <c r="M131" s="8"/>
     </row>
-    <row r="132" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="132" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B132" s="5"/>
       <c r="C132" s="5"/>
       <c r="D132" s="5"/>
@@ -3078,7 +3081,7 @@
       <c r="L132" s="8"/>
       <c r="M132" s="8"/>
     </row>
-    <row r="133" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="133" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B133" s="5"/>
       <c r="C133" s="5"/>
       <c r="D133" s="5"/>
@@ -3092,7 +3095,7 @@
       <c r="L133" s="8"/>
       <c r="M133" s="8"/>
     </row>
-    <row r="134" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="134" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B134" s="5"/>
       <c r="C134" s="5"/>
       <c r="D134" s="5"/>
@@ -3106,7 +3109,7 @@
       <c r="L134" s="8"/>
       <c r="M134" s="8"/>
     </row>
-    <row r="135" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="135" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B135" s="5"/>
       <c r="C135" s="5"/>
       <c r="D135" s="5"/>
@@ -3120,7 +3123,7 @@
       <c r="L135" s="8"/>
       <c r="M135" s="8"/>
     </row>
-    <row r="136" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="136" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B136" s="5"/>
       <c r="C136" s="5"/>
       <c r="D136" s="5"/>
@@ -3134,7 +3137,7 @@
       <c r="L136" s="8"/>
       <c r="M136" s="8"/>
     </row>
-    <row r="137" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="137" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B137" s="5"/>
       <c r="C137" s="5"/>
       <c r="D137" s="5"/>
@@ -3148,7 +3151,7 @@
       <c r="L137" s="8"/>
       <c r="M137" s="8"/>
     </row>
-    <row r="138" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="138" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B138" s="5"/>
       <c r="C138" s="5"/>
       <c r="D138" s="5"/>
@@ -3162,7 +3165,7 @@
       <c r="L138" s="8"/>
       <c r="M138" s="8"/>
     </row>
-    <row r="139" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="139" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B139" s="5"/>
       <c r="C139" s="5"/>
       <c r="D139" s="5"/>
@@ -3176,7 +3179,7 @@
       <c r="L139" s="8"/>
       <c r="M139" s="8"/>
     </row>
-    <row r="140" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="140" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B140" s="5"/>
       <c r="C140" s="5"/>
       <c r="D140" s="5"/>
@@ -3190,7 +3193,7 @@
       <c r="L140" s="8"/>
       <c r="M140" s="8"/>
     </row>
-    <row r="141" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="141" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B141" s="5"/>
       <c r="C141" s="5"/>
       <c r="D141" s="5"/>
@@ -3204,7 +3207,7 @@
       <c r="L141" s="8"/>
       <c r="M141" s="8"/>
     </row>
-    <row r="142" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="142" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B142" s="5"/>
       <c r="C142" s="5"/>
       <c r="D142" s="5"/>
@@ -3218,7 +3221,7 @@
       <c r="L142" s="8"/>
       <c r="M142" s="8"/>
     </row>
-    <row r="143" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="143" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B143" s="5"/>
       <c r="C143" s="5"/>
       <c r="D143" s="5"/>
@@ -3232,7 +3235,7 @@
       <c r="L143" s="8"/>
       <c r="M143" s="8"/>
     </row>
-    <row r="144" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="144" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B144" s="5"/>
       <c r="C144" s="5"/>
       <c r="D144" s="5"/>
@@ -3246,7 +3249,7 @@
       <c r="L144" s="8"/>
       <c r="M144" s="8"/>
     </row>
-    <row r="145" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="145" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B145" s="5"/>
       <c r="C145" s="5"/>
       <c r="D145" s="5"/>
@@ -3260,7 +3263,7 @@
       <c r="L145" s="8"/>
       <c r="M145" s="8"/>
     </row>
-    <row r="146" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="146" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B146" s="5"/>
       <c r="C146" s="5"/>
       <c r="D146" s="5"/>
@@ -3274,7 +3277,7 @@
       <c r="L146" s="8"/>
       <c r="M146" s="8"/>
     </row>
-    <row r="147" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="147" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B147" s="5"/>
       <c r="C147" s="5"/>
       <c r="D147" s="5"/>
@@ -3288,7 +3291,7 @@
       <c r="L147" s="8"/>
       <c r="M147" s="8"/>
     </row>
-    <row r="148" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="148" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B148" s="5"/>
       <c r="C148" s="5"/>
       <c r="D148" s="5"/>
@@ -3302,7 +3305,7 @@
       <c r="L148" s="8"/>
       <c r="M148" s="8"/>
     </row>
-    <row r="149" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="149" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B149" s="5"/>
       <c r="C149" s="5"/>
       <c r="D149" s="5"/>
@@ -3316,7 +3319,7 @@
       <c r="L149" s="8"/>
       <c r="M149" s="8"/>
     </row>
-    <row r="150" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="150" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B150" s="5"/>
       <c r="C150" s="5"/>
       <c r="D150" s="5"/>
@@ -3330,7 +3333,7 @@
       <c r="L150" s="8"/>
       <c r="M150" s="8"/>
     </row>
-    <row r="151" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="151" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B151" s="5"/>
       <c r="C151" s="5"/>
       <c r="D151" s="5"/>
@@ -3344,7 +3347,7 @@
       <c r="L151" s="8"/>
       <c r="M151" s="8"/>
     </row>
-    <row r="152" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="152" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B152" s="5"/>
       <c r="C152" s="5"/>
       <c r="D152" s="5"/>
@@ -3358,7 +3361,7 @@
       <c r="L152" s="8"/>
       <c r="M152" s="8"/>
     </row>
-    <row r="153" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="153" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B153" s="5"/>
       <c r="C153" s="5"/>
       <c r="D153" s="5"/>
@@ -3372,7 +3375,7 @@
       <c r="L153" s="8"/>
       <c r="M153" s="8"/>
     </row>
-    <row r="154" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="154" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B154" s="5"/>
       <c r="C154" s="5"/>
       <c r="D154" s="5"/>
@@ -3386,7 +3389,7 @@
       <c r="L154" s="8"/>
       <c r="M154" s="8"/>
     </row>
-    <row r="155" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="155" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B155" s="5"/>
       <c r="C155" s="5"/>
       <c r="D155" s="5"/>
@@ -3400,7 +3403,7 @@
       <c r="L155" s="8"/>
       <c r="M155" s="8"/>
     </row>
-    <row r="156" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="156" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B156" s="5"/>
       <c r="C156" s="5"/>
       <c r="D156" s="5"/>
@@ -3414,7 +3417,7 @@
       <c r="L156" s="8"/>
       <c r="M156" s="8"/>
     </row>
-    <row r="157" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="157" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B157" s="5"/>
       <c r="C157" s="5"/>
       <c r="D157" s="5"/>
@@ -3428,7 +3431,7 @@
       <c r="L157" s="8"/>
       <c r="M157" s="8"/>
     </row>
-    <row r="158" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="158" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B158" s="5"/>
       <c r="C158" s="5"/>
       <c r="D158" s="5"/>
@@ -3442,7 +3445,7 @@
       <c r="L158" s="8"/>
       <c r="M158" s="8"/>
     </row>
-    <row r="159" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="159" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B159" s="5"/>
       <c r="C159" s="5"/>
       <c r="D159" s="5"/>
@@ -3456,7 +3459,7 @@
       <c r="L159" s="8"/>
       <c r="M159" s="8"/>
     </row>
-    <row r="160" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="160" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B160" s="5"/>
       <c r="C160" s="5"/>
       <c r="D160" s="5"/>
@@ -3470,7 +3473,7 @@
       <c r="L160" s="8"/>
       <c r="M160" s="8"/>
     </row>
-    <row r="161" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="161" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B161" s="5"/>
       <c r="C161" s="5"/>
       <c r="D161" s="5"/>
@@ -3484,7 +3487,7 @@
       <c r="L161" s="8"/>
       <c r="M161" s="8"/>
     </row>
-    <row r="162" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="162" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B162" s="5"/>
       <c r="C162" s="5"/>
       <c r="D162" s="5"/>
@@ -3498,7 +3501,7 @@
       <c r="L162" s="8"/>
       <c r="M162" s="8"/>
     </row>
-    <row r="163" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="163" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B163" s="5"/>
       <c r="C163" s="5"/>
       <c r="D163" s="5"/>
@@ -3512,7 +3515,7 @@
       <c r="L163" s="8"/>
       <c r="M163" s="8"/>
     </row>
-    <row r="164" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="164" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B164" s="5"/>
       <c r="C164" s="5"/>
       <c r="D164" s="5"/>
@@ -3526,7 +3529,7 @@
       <c r="L164" s="8"/>
       <c r="M164" s="8"/>
     </row>
-    <row r="165" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="165" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B165" s="5"/>
       <c r="C165" s="5"/>
       <c r="D165" s="5"/>
@@ -3540,7 +3543,7 @@
       <c r="L165" s="8"/>
       <c r="M165" s="8"/>
     </row>
-    <row r="166" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="166" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B166" s="5"/>
       <c r="C166" s="5"/>
       <c r="D166" s="5"/>
@@ -3554,7 +3557,7 @@
       <c r="L166" s="8"/>
       <c r="M166" s="8"/>
     </row>
-    <row r="167" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="167" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B167" s="5"/>
       <c r="C167" s="5"/>
       <c r="D167" s="5"/>
@@ -3568,7 +3571,7 @@
       <c r="L167" s="8"/>
       <c r="M167" s="8"/>
     </row>
-    <row r="168" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="168" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B168" s="5"/>
       <c r="C168" s="5"/>
       <c r="D168" s="5"/>
@@ -3582,7 +3585,7 @@
       <c r="L168" s="8"/>
       <c r="M168" s="8"/>
     </row>
-    <row r="169" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="169" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B169" s="5"/>
       <c r="C169" s="5"/>
       <c r="D169" s="5"/>
@@ -3596,7 +3599,7 @@
       <c r="L169" s="8"/>
       <c r="M169" s="8"/>
     </row>
-    <row r="170" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="170" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B170" s="5"/>
       <c r="C170" s="5"/>
       <c r="D170" s="5"/>
@@ -3610,7 +3613,7 @@
       <c r="L170" s="8"/>
       <c r="M170" s="8"/>
     </row>
-    <row r="171" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="171" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B171" s="5"/>
       <c r="C171" s="5"/>
       <c r="D171" s="5"/>
@@ -3624,7 +3627,7 @@
       <c r="L171" s="8"/>
       <c r="M171" s="8"/>
     </row>
-    <row r="172" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="172" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B172" s="5"/>
       <c r="C172" s="5"/>
       <c r="D172" s="5"/>
@@ -3638,7 +3641,7 @@
       <c r="L172" s="8"/>
       <c r="M172" s="8"/>
     </row>
-    <row r="173" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="173" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B173" s="5"/>
       <c r="C173" s="5"/>
       <c r="D173" s="5"/>
@@ -3652,7 +3655,7 @@
       <c r="L173" s="8"/>
       <c r="M173" s="8"/>
     </row>
-    <row r="174" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="174" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B174" s="5"/>
       <c r="C174" s="5"/>
       <c r="D174" s="5"/>
@@ -3666,7 +3669,7 @@
       <c r="L174" s="8"/>
       <c r="M174" s="8"/>
     </row>
-    <row r="175" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="175" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B175" s="5"/>
       <c r="C175" s="5"/>
       <c r="D175" s="5"/>
@@ -3680,7 +3683,7 @@
       <c r="L175" s="8"/>
       <c r="M175" s="8"/>
     </row>
-    <row r="176" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="176" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B176" s="5"/>
       <c r="C176" s="5"/>
       <c r="D176" s="5"/>
@@ -3694,7 +3697,7 @@
       <c r="L176" s="8"/>
       <c r="M176" s="8"/>
     </row>
-    <row r="177" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="177" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B177" s="5"/>
       <c r="C177" s="5"/>
       <c r="D177" s="5"/>
@@ -3708,7 +3711,7 @@
       <c r="L177" s="8"/>
       <c r="M177" s="8"/>
     </row>
-    <row r="178" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="178" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B178" s="5"/>
       <c r="C178" s="5"/>
       <c r="D178" s="5"/>
@@ -3722,7 +3725,7 @@
       <c r="L178" s="8"/>
       <c r="M178" s="8"/>
     </row>
-    <row r="179" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="179" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B179" s="5"/>
       <c r="C179" s="5"/>
       <c r="D179" s="5"/>
@@ -3736,7 +3739,7 @@
       <c r="L179" s="8"/>
       <c r="M179" s="8"/>
     </row>
-    <row r="180" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="180" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B180" s="5"/>
       <c r="C180" s="5"/>
       <c r="D180" s="5"/>
@@ -3750,7 +3753,7 @@
       <c r="L180" s="8"/>
       <c r="M180" s="8"/>
     </row>
-    <row r="181" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="181" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B181" s="5"/>
       <c r="C181" s="5"/>
       <c r="D181" s="5"/>
@@ -3764,7 +3767,7 @@
       <c r="L181" s="8"/>
       <c r="M181" s="8"/>
     </row>
-    <row r="182" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="182" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B182" s="5"/>
       <c r="C182" s="5"/>
       <c r="D182" s="5"/>
@@ -3778,7 +3781,7 @@
       <c r="L182" s="8"/>
       <c r="M182" s="8"/>
     </row>
-    <row r="183" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="183" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B183" s="5"/>
       <c r="C183" s="5"/>
       <c r="D183" s="5"/>
@@ -3792,7 +3795,7 @@
       <c r="L183" s="8"/>
       <c r="M183" s="8"/>
     </row>
-    <row r="184" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="184" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B184" s="5"/>
       <c r="C184" s="5"/>
       <c r="D184" s="5"/>
@@ -3806,7 +3809,7 @@
       <c r="L184" s="8"/>
       <c r="M184" s="8"/>
     </row>
-    <row r="185" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="185" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B185" s="5"/>
       <c r="C185" s="5"/>
       <c r="D185" s="5"/>
@@ -3820,7 +3823,7 @@
       <c r="L185" s="8"/>
       <c r="M185" s="8"/>
     </row>
-    <row r="186" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="186" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B186" s="5"/>
       <c r="C186" s="5"/>
       <c r="D186" s="5"/>
@@ -3834,7 +3837,7 @@
       <c r="L186" s="8"/>
       <c r="M186" s="8"/>
     </row>
-    <row r="187" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="187" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B187" s="5"/>
       <c r="C187" s="5"/>
       <c r="D187" s="5"/>
@@ -3848,7 +3851,7 @@
       <c r="L187" s="8"/>
       <c r="M187" s="8"/>
     </row>
-    <row r="188" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="188" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B188" s="5"/>
       <c r="C188" s="5"/>
       <c r="D188" s="5"/>
@@ -3862,7 +3865,7 @@
       <c r="L188" s="8"/>
       <c r="M188" s="8"/>
     </row>
-    <row r="189" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="189" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B189" s="5"/>
       <c r="C189" s="5"/>
       <c r="D189" s="5"/>
@@ -3876,7 +3879,7 @@
       <c r="L189" s="8"/>
       <c r="M189" s="8"/>
     </row>
-    <row r="190" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="190" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B190" s="5"/>
       <c r="C190" s="5"/>
       <c r="D190" s="5"/>
@@ -3890,7 +3893,7 @@
       <c r="L190" s="8"/>
       <c r="M190" s="8"/>
     </row>
-    <row r="191" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="191" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B191" s="5"/>
       <c r="C191" s="5"/>
       <c r="D191" s="5"/>
@@ -3904,7 +3907,7 @@
       <c r="L191" s="8"/>
       <c r="M191" s="8"/>
     </row>
-    <row r="192" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="192" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B192" s="5"/>
       <c r="C192" s="5"/>
       <c r="D192" s="5"/>
@@ -3918,7 +3921,7 @@
       <c r="L192" s="8"/>
       <c r="M192" s="8"/>
     </row>
-    <row r="193" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="193" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B193" s="5"/>
       <c r="C193" s="5"/>
       <c r="D193" s="5"/>
@@ -3932,7 +3935,7 @@
       <c r="L193" s="8"/>
       <c r="M193" s="8"/>
     </row>
-    <row r="194" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="194" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B194" s="5"/>
       <c r="C194" s="5"/>
       <c r="D194" s="5"/>
@@ -3946,7 +3949,7 @@
       <c r="L194" s="8"/>
       <c r="M194" s="8"/>
     </row>
-    <row r="195" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="195" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B195" s="5"/>
       <c r="C195" s="5"/>
       <c r="D195" s="5"/>
@@ -3960,7 +3963,7 @@
       <c r="L195" s="8"/>
       <c r="M195" s="8"/>
     </row>
-    <row r="196" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="196" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B196" s="5"/>
       <c r="C196" s="5"/>
       <c r="D196" s="5"/>
@@ -3974,7 +3977,7 @@
       <c r="L196" s="8"/>
       <c r="M196" s="8"/>
     </row>
-    <row r="197" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="197" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B197" s="5"/>
       <c r="C197" s="5"/>
       <c r="D197" s="5"/>
@@ -3988,7 +3991,7 @@
       <c r="L197" s="8"/>
       <c r="M197" s="8"/>
     </row>
-    <row r="198" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="198" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B198" s="5"/>
       <c r="C198" s="5"/>
       <c r="D198" s="5"/>
@@ -4002,7 +4005,7 @@
       <c r="L198" s="8"/>
       <c r="M198" s="8"/>
     </row>
-    <row r="199" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="199" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B199" s="5"/>
       <c r="C199" s="5"/>
       <c r="D199" s="5"/>
@@ -4016,7 +4019,7 @@
       <c r="L199" s="8"/>
       <c r="M199" s="8"/>
     </row>
-    <row r="200" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="200" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B200" s="5"/>
       <c r="C200" s="5"/>
       <c r="D200" s="5"/>
@@ -4049,14 +4052,14 @@
       <selection activeCell="I2" sqref="I2:J2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="2.453125" customWidth="1"/>
-    <col min="2" max="9" width="14.54296875" customWidth="1"/>
-    <col min="10" max="10" width="15.54296875" customWidth="1"/>
+    <col min="1" max="1" width="2.5" customWidth="1"/>
+    <col min="2" max="9" width="14.5" customWidth="1"/>
+    <col min="10" max="10" width="15.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
       <c r="B2" s="13" t="s">
         <v>17</v>
@@ -4074,7 +4077,7 @@
       </c>
       <c r="J2" s="52"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B3" s="10" t="s">
         <v>19</v>
       </c>
@@ -4084,7 +4087,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B4" s="10" t="s">
         <v>21</v>
       </c>
@@ -4094,7 +4097,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B6" s="4" t="s">
         <v>1</v>
       </c>
@@ -4123,7 +4126,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B7" s="5"/>
       <c r="C7" s="5"/>
       <c r="D7" s="5"/>
@@ -4134,7 +4137,7 @@
       <c r="I7" s="6"/>
       <c r="J7" s="6"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B8" s="5"/>
       <c r="C8" s="5"/>
       <c r="D8" s="5"/>
@@ -4145,7 +4148,7 @@
       <c r="I8" s="6"/>
       <c r="J8" s="6"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B9" s="5"/>
       <c r="C9" s="5"/>
       <c r="D9" s="5"/>
@@ -4156,7 +4159,7 @@
       <c r="I9" s="6"/>
       <c r="J9" s="6"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
       <c r="D10" s="5"/>
@@ -4167,7 +4170,7 @@
       <c r="I10" s="6"/>
       <c r="J10" s="6"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B11" s="5"/>
       <c r="C11" s="5"/>
       <c r="D11" s="5"/>
@@ -4177,7 +4180,7 @@
       <c r="H11" s="6"/>
       <c r="I11" s="6"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B12" s="5"/>
       <c r="C12" s="5"/>
       <c r="D12" s="5"/>
@@ -4187,7 +4190,7 @@
       <c r="H12" s="6"/>
       <c r="I12" s="6"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B13" s="5"/>
       <c r="C13" s="5"/>
       <c r="D13" s="5"/>
@@ -4197,7 +4200,7 @@
       <c r="H13" s="6"/>
       <c r="I13" s="6"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B14" s="5"/>
       <c r="C14" s="5"/>
       <c r="D14" s="5"/>
@@ -4207,7 +4210,7 @@
       <c r="H14" s="6"/>
       <c r="I14" s="6"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B15" s="5"/>
       <c r="C15" s="5"/>
       <c r="D15" s="5"/>
@@ -4217,7 +4220,7 @@
       <c r="H15" s="6"/>
       <c r="I15" s="6"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B16" s="5"/>
       <c r="C16" s="5"/>
       <c r="D16" s="5"/>
@@ -4227,7 +4230,7 @@
       <c r="H16" s="6"/>
       <c r="I16" s="6"/>
     </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B17" s="5"/>
       <c r="C17" s="5"/>
       <c r="D17" s="5"/>
@@ -4237,7 +4240,7 @@
       <c r="H17" s="6"/>
       <c r="I17" s="6"/>
     </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B18" s="5"/>
       <c r="C18" s="5"/>
       <c r="D18" s="5"/>
@@ -4247,7 +4250,7 @@
       <c r="H18" s="6"/>
       <c r="I18" s="6"/>
     </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B19" s="5"/>
       <c r="C19" s="5"/>
       <c r="D19" s="5"/>
@@ -4257,7 +4260,7 @@
       <c r="H19" s="6"/>
       <c r="I19" s="6"/>
     </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B20" s="5"/>
       <c r="C20" s="5"/>
       <c r="D20" s="5"/>
@@ -4267,7 +4270,7 @@
       <c r="H20" s="6"/>
       <c r="I20" s="6"/>
     </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B21" s="5"/>
       <c r="C21" s="5"/>
       <c r="D21" s="5"/>
@@ -4277,7 +4280,7 @@
       <c r="H21" s="6"/>
       <c r="I21" s="6"/>
     </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B22" s="5"/>
       <c r="C22" s="5"/>
       <c r="D22" s="5"/>
@@ -4287,7 +4290,7 @@
       <c r="H22" s="6"/>
       <c r="I22" s="6"/>
     </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B23" s="5"/>
       <c r="C23" s="5"/>
       <c r="D23" s="5"/>
@@ -4297,7 +4300,7 @@
       <c r="H23" s="6"/>
       <c r="I23" s="6"/>
     </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B24" s="5"/>
       <c r="C24" s="5"/>
       <c r="D24" s="5"/>
@@ -4307,7 +4310,7 @@
       <c r="H24" s="6"/>
       <c r="I24" s="6"/>
     </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B25" s="5"/>
       <c r="C25" s="5"/>
       <c r="D25" s="5"/>
@@ -4317,7 +4320,7 @@
       <c r="H25" s="6"/>
       <c r="I25" s="6"/>
     </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="26" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B26" s="5"/>
       <c r="C26" s="5"/>
       <c r="D26" s="5"/>
@@ -4327,7 +4330,7 @@
       <c r="H26" s="6"/>
       <c r="I26" s="6"/>
     </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="27" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B27" s="5"/>
       <c r="C27" s="5"/>
       <c r="D27" s="5"/>
@@ -4337,7 +4340,7 @@
       <c r="H27" s="6"/>
       <c r="I27" s="6"/>
     </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="28" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B28" s="5"/>
       <c r="C28" s="5"/>
       <c r="D28" s="5"/>
@@ -4347,7 +4350,7 @@
       <c r="H28" s="6"/>
       <c r="I28" s="6"/>
     </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="29" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B29" s="5"/>
       <c r="C29" s="5"/>
       <c r="D29" s="5"/>
@@ -4357,7 +4360,7 @@
       <c r="H29" s="6"/>
       <c r="I29" s="6"/>
     </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="30" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B30" s="5"/>
       <c r="C30" s="5"/>
       <c r="D30" s="5"/>
@@ -4367,7 +4370,7 @@
       <c r="H30" s="6"/>
       <c r="I30" s="6"/>
     </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="31" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B31" s="5"/>
       <c r="C31" s="5"/>
       <c r="D31" s="5"/>
@@ -4377,7 +4380,7 @@
       <c r="H31" s="6"/>
       <c r="I31" s="6"/>
     </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="32" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B32" s="5"/>
       <c r="C32" s="5"/>
       <c r="D32" s="5"/>
@@ -4387,7 +4390,7 @@
       <c r="H32" s="6"/>
       <c r="I32" s="6"/>
     </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="33" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B33" s="5"/>
       <c r="C33" s="5"/>
       <c r="D33" s="5"/>
@@ -4397,7 +4400,7 @@
       <c r="H33" s="6"/>
       <c r="I33" s="6"/>
     </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="34" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B34" s="5"/>
       <c r="C34" s="5"/>
       <c r="D34" s="5"/>
@@ -4407,7 +4410,7 @@
       <c r="H34" s="6"/>
       <c r="I34" s="6"/>
     </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="35" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B35" s="5"/>
       <c r="C35" s="5"/>
       <c r="D35" s="5"/>
@@ -4417,7 +4420,7 @@
       <c r="H35" s="6"/>
       <c r="I35" s="6"/>
     </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="36" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B36" s="5"/>
       <c r="C36" s="5"/>
       <c r="D36" s="5"/>
@@ -4427,7 +4430,7 @@
       <c r="H36" s="6"/>
       <c r="I36" s="6"/>
     </row>
-    <row r="37" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="37" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B37" s="5"/>
       <c r="C37" s="5"/>
       <c r="D37" s="5"/>
@@ -4437,7 +4440,7 @@
       <c r="H37" s="6"/>
       <c r="I37" s="6"/>
     </row>
-    <row r="38" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="38" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B38" s="5"/>
       <c r="C38" s="5"/>
       <c r="D38" s="5"/>
@@ -4447,7 +4450,7 @@
       <c r="H38" s="6"/>
       <c r="I38" s="6"/>
     </row>
-    <row r="39" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="39" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B39" s="5"/>
       <c r="C39" s="5"/>
       <c r="D39" s="5"/>
@@ -4457,7 +4460,7 @@
       <c r="H39" s="6"/>
       <c r="I39" s="6"/>
     </row>
-    <row r="40" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="40" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B40" s="5"/>
       <c r="C40" s="5"/>
       <c r="D40" s="5"/>
@@ -4467,7 +4470,7 @@
       <c r="H40" s="6"/>
       <c r="I40" s="6"/>
     </row>
-    <row r="41" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="41" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B41" s="5"/>
       <c r="C41" s="5"/>
       <c r="D41" s="5"/>
@@ -4477,7 +4480,7 @@
       <c r="H41" s="6"/>
       <c r="I41" s="6"/>
     </row>
-    <row r="42" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="42" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B42" s="5"/>
       <c r="C42" s="5"/>
       <c r="D42" s="5"/>
@@ -4487,7 +4490,7 @@
       <c r="H42" s="6"/>
       <c r="I42" s="6"/>
     </row>
-    <row r="43" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="43" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B43" s="5"/>
       <c r="C43" s="5"/>
       <c r="D43" s="5"/>
@@ -4497,7 +4500,7 @@
       <c r="H43" s="6"/>
       <c r="I43" s="6"/>
     </row>
-    <row r="44" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="44" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B44" s="5"/>
       <c r="C44" s="5"/>
       <c r="D44" s="5"/>
@@ -4507,7 +4510,7 @@
       <c r="H44" s="6"/>
       <c r="I44" s="6"/>
     </row>
-    <row r="45" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="45" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B45" s="5"/>
       <c r="C45" s="5"/>
       <c r="D45" s="5"/>
@@ -4517,7 +4520,7 @@
       <c r="H45" s="6"/>
       <c r="I45" s="6"/>
     </row>
-    <row r="46" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="46" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B46" s="5"/>
       <c r="C46" s="5"/>
       <c r="D46" s="5"/>
@@ -4527,7 +4530,7 @@
       <c r="H46" s="6"/>
       <c r="I46" s="6"/>
     </row>
-    <row r="47" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="47" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B47" s="5"/>
       <c r="C47" s="5"/>
       <c r="D47" s="5"/>
@@ -4537,7 +4540,7 @@
       <c r="H47" s="6"/>
       <c r="I47" s="6"/>
     </row>
-    <row r="48" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="48" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B48" s="5"/>
       <c r="C48" s="5"/>
       <c r="D48" s="5"/>
@@ -4547,7 +4550,7 @@
       <c r="H48" s="6"/>
       <c r="I48" s="6"/>
     </row>
-    <row r="49" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="49" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B49" s="5"/>
       <c r="C49" s="5"/>
       <c r="D49" s="5"/>
@@ -4557,7 +4560,7 @@
       <c r="H49" s="6"/>
       <c r="I49" s="6"/>
     </row>
-    <row r="50" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="50" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B50" s="5"/>
       <c r="C50" s="5"/>
       <c r="D50" s="5"/>
@@ -4567,7 +4570,7 @@
       <c r="H50" s="6"/>
       <c r="I50" s="6"/>
     </row>
-    <row r="51" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="51" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B51" s="5"/>
       <c r="C51" s="5"/>
       <c r="D51" s="5"/>
@@ -4577,7 +4580,7 @@
       <c r="H51" s="6"/>
       <c r="I51" s="6"/>
     </row>
-    <row r="52" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="52" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B52" s="5"/>
       <c r="C52" s="5"/>
       <c r="D52" s="5"/>
@@ -4587,7 +4590,7 @@
       <c r="H52" s="6"/>
       <c r="I52" s="6"/>
     </row>
-    <row r="53" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="53" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B53" s="5"/>
       <c r="C53" s="5"/>
       <c r="D53" s="5"/>
@@ -4597,7 +4600,7 @@
       <c r="H53" s="6"/>
       <c r="I53" s="6"/>
     </row>
-    <row r="54" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="54" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B54" s="5"/>
       <c r="C54" s="5"/>
       <c r="D54" s="5"/>
@@ -4607,7 +4610,7 @@
       <c r="H54" s="6"/>
       <c r="I54" s="6"/>
     </row>
-    <row r="55" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="55" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B55" s="5"/>
       <c r="C55" s="5"/>
       <c r="D55" s="5"/>
@@ -4617,7 +4620,7 @@
       <c r="H55" s="6"/>
       <c r="I55" s="6"/>
     </row>
-    <row r="56" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="56" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B56" s="5"/>
       <c r="C56" s="5"/>
       <c r="D56" s="5"/>
@@ -4627,7 +4630,7 @@
       <c r="H56" s="6"/>
       <c r="I56" s="6"/>
     </row>
-    <row r="57" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="57" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B57" s="5"/>
       <c r="C57" s="5"/>
       <c r="D57" s="5"/>
@@ -4637,7 +4640,7 @@
       <c r="H57" s="6"/>
       <c r="I57" s="6"/>
     </row>
-    <row r="58" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="58" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B58" s="5"/>
       <c r="C58" s="5"/>
       <c r="D58" s="5"/>
@@ -4647,7 +4650,7 @@
       <c r="H58" s="6"/>
       <c r="I58" s="6"/>
     </row>
-    <row r="59" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="59" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B59" s="5"/>
       <c r="C59" s="5"/>
       <c r="D59" s="5"/>
@@ -4657,7 +4660,7 @@
       <c r="H59" s="6"/>
       <c r="I59" s="6"/>
     </row>
-    <row r="60" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="60" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B60" s="5"/>
       <c r="C60" s="5"/>
       <c r="D60" s="5"/>
@@ -4667,7 +4670,7 @@
       <c r="H60" s="6"/>
       <c r="I60" s="6"/>
     </row>
-    <row r="61" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="61" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B61" s="5"/>
       <c r="C61" s="5"/>
       <c r="D61" s="5"/>
@@ -4677,7 +4680,7 @@
       <c r="H61" s="6"/>
       <c r="I61" s="6"/>
     </row>
-    <row r="62" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="62" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B62" s="5"/>
       <c r="C62" s="5"/>
       <c r="D62" s="5"/>
@@ -4687,7 +4690,7 @@
       <c r="H62" s="6"/>
       <c r="I62" s="6"/>
     </row>
-    <row r="63" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="63" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B63" s="5"/>
       <c r="C63" s="5"/>
       <c r="D63" s="5"/>
@@ -4697,7 +4700,7 @@
       <c r="H63" s="6"/>
       <c r="I63" s="6"/>
     </row>
-    <row r="64" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="64" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B64" s="5"/>
       <c r="C64" s="5"/>
       <c r="D64" s="5"/>
@@ -4707,7 +4710,7 @@
       <c r="H64" s="6"/>
       <c r="I64" s="6"/>
     </row>
-    <row r="65" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="65" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B65" s="5"/>
       <c r="C65" s="5"/>
       <c r="D65" s="5"/>
@@ -4717,7 +4720,7 @@
       <c r="H65" s="6"/>
       <c r="I65" s="6"/>
     </row>
-    <row r="66" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="66" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B66" s="5"/>
       <c r="C66" s="5"/>
       <c r="D66" s="5"/>
@@ -4727,7 +4730,7 @@
       <c r="H66" s="6"/>
       <c r="I66" s="6"/>
     </row>
-    <row r="67" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="67" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B67" s="5"/>
       <c r="C67" s="5"/>
       <c r="D67" s="5"/>
@@ -4737,7 +4740,7 @@
       <c r="H67" s="6"/>
       <c r="I67" s="6"/>
     </row>
-    <row r="68" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="68" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B68" s="5"/>
       <c r="C68" s="5"/>
       <c r="D68" s="5"/>
@@ -4747,7 +4750,7 @@
       <c r="H68" s="6"/>
       <c r="I68" s="6"/>
     </row>
-    <row r="69" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="69" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B69" s="5"/>
       <c r="C69" s="5"/>
       <c r="D69" s="5"/>
@@ -4757,7 +4760,7 @@
       <c r="H69" s="6"/>
       <c r="I69" s="6"/>
     </row>
-    <row r="70" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="70" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B70" s="5"/>
       <c r="C70" s="5"/>
       <c r="D70" s="5"/>
@@ -4767,7 +4770,7 @@
       <c r="H70" s="6"/>
       <c r="I70" s="6"/>
     </row>
-    <row r="71" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="71" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B71" s="5"/>
       <c r="C71" s="5"/>
       <c r="D71" s="5"/>
@@ -4777,7 +4780,7 @@
       <c r="H71" s="6"/>
       <c r="I71" s="6"/>
     </row>
-    <row r="72" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="72" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B72" s="5"/>
       <c r="C72" s="5"/>
       <c r="D72" s="5"/>
@@ -4787,7 +4790,7 @@
       <c r="H72" s="6"/>
       <c r="I72" s="6"/>
     </row>
-    <row r="73" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="73" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B73" s="5"/>
       <c r="C73" s="5"/>
       <c r="D73" s="5"/>
@@ -4797,7 +4800,7 @@
       <c r="H73" s="6"/>
       <c r="I73" s="6"/>
     </row>
-    <row r="74" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="74" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B74" s="5"/>
       <c r="C74" s="5"/>
       <c r="D74" s="5"/>
@@ -4807,7 +4810,7 @@
       <c r="H74" s="6"/>
       <c r="I74" s="6"/>
     </row>
-    <row r="75" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="75" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B75" s="5"/>
       <c r="C75" s="5"/>
       <c r="D75" s="5"/>
@@ -4817,7 +4820,7 @@
       <c r="H75" s="6"/>
       <c r="I75" s="6"/>
     </row>
-    <row r="76" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="76" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B76" s="5"/>
       <c r="C76" s="5"/>
       <c r="D76" s="5"/>
@@ -4827,7 +4830,7 @@
       <c r="H76" s="6"/>
       <c r="I76" s="6"/>
     </row>
-    <row r="77" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="77" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B77" s="5"/>
       <c r="C77" s="5"/>
       <c r="D77" s="5"/>
@@ -4837,7 +4840,7 @@
       <c r="H77" s="6"/>
       <c r="I77" s="6"/>
     </row>
-    <row r="78" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="78" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B78" s="5"/>
       <c r="C78" s="5"/>
       <c r="D78" s="5"/>
@@ -4847,7 +4850,7 @@
       <c r="H78" s="6"/>
       <c r="I78" s="6"/>
     </row>
-    <row r="79" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="79" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B79" s="5"/>
       <c r="C79" s="5"/>
       <c r="D79" s="5"/>
@@ -4857,7 +4860,7 @@
       <c r="H79" s="6"/>
       <c r="I79" s="6"/>
     </row>
-    <row r="80" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="80" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B80" s="5"/>
       <c r="C80" s="5"/>
       <c r="D80" s="5"/>
@@ -4867,7 +4870,7 @@
       <c r="H80" s="6"/>
       <c r="I80" s="6"/>
     </row>
-    <row r="81" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="81" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B81" s="5"/>
       <c r="C81" s="5"/>
       <c r="D81" s="5"/>
@@ -4877,7 +4880,7 @@
       <c r="H81" s="6"/>
       <c r="I81" s="6"/>
     </row>
-    <row r="82" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="82" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B82" s="5"/>
       <c r="C82" s="5"/>
       <c r="D82" s="5"/>
@@ -4887,7 +4890,7 @@
       <c r="H82" s="6"/>
       <c r="I82" s="6"/>
     </row>
-    <row r="83" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="83" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B83" s="5"/>
       <c r="C83" s="5"/>
       <c r="D83" s="5"/>
@@ -4897,7 +4900,7 @@
       <c r="H83" s="6"/>
       <c r="I83" s="6"/>
     </row>
-    <row r="84" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="84" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B84" s="5"/>
       <c r="C84" s="5"/>
       <c r="D84" s="5"/>
@@ -4907,7 +4910,7 @@
       <c r="H84" s="6"/>
       <c r="I84" s="6"/>
     </row>
-    <row r="85" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="85" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B85" s="5"/>
       <c r="C85" s="5"/>
       <c r="D85" s="5"/>
@@ -4917,7 +4920,7 @@
       <c r="H85" s="6"/>
       <c r="I85" s="6"/>
     </row>
-    <row r="86" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="86" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B86" s="5"/>
       <c r="C86" s="5"/>
       <c r="D86" s="5"/>
@@ -4927,7 +4930,7 @@
       <c r="H86" s="6"/>
       <c r="I86" s="6"/>
     </row>
-    <row r="87" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="87" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B87" s="5"/>
       <c r="C87" s="5"/>
       <c r="D87" s="5"/>
@@ -4937,7 +4940,7 @@
       <c r="H87" s="6"/>
       <c r="I87" s="6"/>
     </row>
-    <row r="88" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="88" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B88" s="5"/>
       <c r="C88" s="5"/>
       <c r="D88" s="5"/>
@@ -4947,7 +4950,7 @@
       <c r="H88" s="6"/>
       <c r="I88" s="6"/>
     </row>
-    <row r="89" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="89" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B89" s="5"/>
       <c r="C89" s="5"/>
       <c r="D89" s="5"/>
@@ -4957,7 +4960,7 @@
       <c r="H89" s="6"/>
       <c r="I89" s="6"/>
     </row>
-    <row r="90" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="90" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B90" s="5"/>
       <c r="C90" s="5"/>
       <c r="D90" s="5"/>
@@ -4967,7 +4970,7 @@
       <c r="H90" s="6"/>
       <c r="I90" s="6"/>
     </row>
-    <row r="91" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="91" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B91" s="5"/>
       <c r="C91" s="5"/>
       <c r="D91" s="5"/>
@@ -4977,7 +4980,7 @@
       <c r="H91" s="6"/>
       <c r="I91" s="6"/>
     </row>
-    <row r="92" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="92" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B92" s="5"/>
       <c r="C92" s="5"/>
       <c r="D92" s="5"/>
@@ -4987,7 +4990,7 @@
       <c r="H92" s="6"/>
       <c r="I92" s="6"/>
     </row>
-    <row r="93" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="93" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B93" s="5"/>
       <c r="C93" s="5"/>
       <c r="D93" s="5"/>
@@ -4997,7 +5000,7 @@
       <c r="H93" s="6"/>
       <c r="I93" s="6"/>
     </row>
-    <row r="94" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="94" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B94" s="5"/>
       <c r="C94" s="5"/>
       <c r="D94" s="5"/>
@@ -5007,7 +5010,7 @@
       <c r="H94" s="6"/>
       <c r="I94" s="6"/>
     </row>
-    <row r="95" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="95" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B95" s="5"/>
       <c r="C95" s="5"/>
       <c r="D95" s="5"/>
@@ -5017,7 +5020,7 @@
       <c r="H95" s="6"/>
       <c r="I95" s="6"/>
     </row>
-    <row r="96" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="96" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B96" s="5"/>
       <c r="C96" s="5"/>
       <c r="D96" s="5"/>
@@ -5027,7 +5030,7 @@
       <c r="H96" s="6"/>
       <c r="I96" s="6"/>
     </row>
-    <row r="97" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="97" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B97" s="5"/>
       <c r="C97" s="5"/>
       <c r="D97" s="5"/>
@@ -5037,7 +5040,7 @@
       <c r="H97" s="6"/>
       <c r="I97" s="6"/>
     </row>
-    <row r="98" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="98" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B98" s="5"/>
       <c r="C98" s="5"/>
       <c r="D98" s="5"/>
@@ -5047,7 +5050,7 @@
       <c r="H98" s="6"/>
       <c r="I98" s="6"/>
     </row>
-    <row r="99" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="99" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B99" s="5"/>
       <c r="C99" s="5"/>
       <c r="D99" s="5"/>
@@ -5057,7 +5060,7 @@
       <c r="H99" s="6"/>
       <c r="I99" s="6"/>
     </row>
-    <row r="100" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="100" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B100" s="5"/>
       <c r="C100" s="5"/>
       <c r="D100" s="5"/>
@@ -5067,7 +5070,7 @@
       <c r="H100" s="6"/>
       <c r="I100" s="6"/>
     </row>
-    <row r="101" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="101" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B101" s="5"/>
       <c r="C101" s="5"/>
       <c r="D101" s="5"/>
@@ -5077,7 +5080,7 @@
       <c r="H101" s="6"/>
       <c r="I101" s="6"/>
     </row>
-    <row r="102" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="102" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B102" s="5"/>
       <c r="C102" s="5"/>
       <c r="D102" s="5"/>
@@ -5087,7 +5090,7 @@
       <c r="H102" s="6"/>
       <c r="I102" s="6"/>
     </row>
-    <row r="103" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="103" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B103" s="5"/>
       <c r="C103" s="5"/>
       <c r="D103" s="5"/>
@@ -5097,7 +5100,7 @@
       <c r="H103" s="6"/>
       <c r="I103" s="6"/>
     </row>
-    <row r="104" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="104" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B104" s="5"/>
       <c r="C104" s="5"/>
       <c r="D104" s="5"/>
@@ -5107,7 +5110,7 @@
       <c r="H104" s="6"/>
       <c r="I104" s="6"/>
     </row>
-    <row r="105" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="105" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B105" s="5"/>
       <c r="C105" s="5"/>
       <c r="D105" s="5"/>
@@ -5117,7 +5120,7 @@
       <c r="H105" s="6"/>
       <c r="I105" s="6"/>
     </row>
-    <row r="106" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="106" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B106" s="5"/>
       <c r="C106" s="5"/>
       <c r="D106" s="5"/>
@@ -5127,7 +5130,7 @@
       <c r="H106" s="6"/>
       <c r="I106" s="6"/>
     </row>
-    <row r="107" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="107" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B107" s="5"/>
       <c r="C107" s="5"/>
       <c r="D107" s="5"/>
@@ -5137,7 +5140,7 @@
       <c r="H107" s="6"/>
       <c r="I107" s="6"/>
     </row>
-    <row r="108" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="108" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B108" s="5"/>
       <c r="C108" s="5"/>
       <c r="D108" s="5"/>
@@ -5147,7 +5150,7 @@
       <c r="H108" s="6"/>
       <c r="I108" s="6"/>
     </row>
-    <row r="109" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="109" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B109" s="5"/>
       <c r="C109" s="5"/>
       <c r="D109" s="5"/>
@@ -5157,7 +5160,7 @@
       <c r="H109" s="6"/>
       <c r="I109" s="6"/>
     </row>
-    <row r="110" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="110" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B110" s="5"/>
       <c r="C110" s="5"/>
       <c r="D110" s="5"/>
@@ -5167,7 +5170,7 @@
       <c r="H110" s="6"/>
       <c r="I110" s="6"/>
     </row>
-    <row r="111" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="111" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B111" s="5"/>
       <c r="C111" s="5"/>
       <c r="D111" s="5"/>
@@ -5177,7 +5180,7 @@
       <c r="H111" s="6"/>
       <c r="I111" s="6"/>
     </row>
-    <row r="112" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="112" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B112" s="5"/>
       <c r="C112" s="5"/>
       <c r="D112" s="5"/>
@@ -5187,7 +5190,7 @@
       <c r="H112" s="6"/>
       <c r="I112" s="6"/>
     </row>
-    <row r="113" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="113" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B113" s="5"/>
       <c r="C113" s="5"/>
       <c r="D113" s="5"/>
@@ -5197,7 +5200,7 @@
       <c r="H113" s="6"/>
       <c r="I113" s="6"/>
     </row>
-    <row r="114" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="114" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B114" s="5"/>
       <c r="C114" s="5"/>
       <c r="D114" s="5"/>
@@ -5207,7 +5210,7 @@
       <c r="H114" s="6"/>
       <c r="I114" s="6"/>
     </row>
-    <row r="115" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="115" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B115" s="5"/>
       <c r="C115" s="5"/>
       <c r="D115" s="5"/>
@@ -5217,7 +5220,7 @@
       <c r="H115" s="6"/>
       <c r="I115" s="6"/>
     </row>
-    <row r="116" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="116" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B116" s="5"/>
       <c r="C116" s="5"/>
       <c r="D116" s="5"/>
@@ -5227,7 +5230,7 @@
       <c r="H116" s="6"/>
       <c r="I116" s="6"/>
     </row>
-    <row r="117" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="117" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B117" s="5"/>
       <c r="C117" s="5"/>
       <c r="D117" s="5"/>
@@ -5237,7 +5240,7 @@
       <c r="H117" s="6"/>
       <c r="I117" s="6"/>
     </row>
-    <row r="118" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="118" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B118" s="5"/>
       <c r="C118" s="5"/>
       <c r="D118" s="5"/>
@@ -5247,7 +5250,7 @@
       <c r="H118" s="6"/>
       <c r="I118" s="6"/>
     </row>
-    <row r="119" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="119" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B119" s="5"/>
       <c r="C119" s="5"/>
       <c r="D119" s="5"/>
@@ -5257,7 +5260,7 @@
       <c r="H119" s="6"/>
       <c r="I119" s="6"/>
     </row>
-    <row r="120" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="120" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B120" s="5"/>
       <c r="C120" s="5"/>
       <c r="D120" s="5"/>
@@ -5267,7 +5270,7 @@
       <c r="H120" s="6"/>
       <c r="I120" s="6"/>
     </row>
-    <row r="121" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="121" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B121" s="5"/>
       <c r="C121" s="5"/>
       <c r="D121" s="5"/>
@@ -5277,7 +5280,7 @@
       <c r="H121" s="6"/>
       <c r="I121" s="6"/>
     </row>
-    <row r="122" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="122" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B122" s="5"/>
       <c r="C122" s="5"/>
       <c r="D122" s="5"/>
@@ -5287,7 +5290,7 @@
       <c r="H122" s="6"/>
       <c r="I122" s="6"/>
     </row>
-    <row r="123" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="123" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B123" s="5"/>
       <c r="C123" s="5"/>
       <c r="D123" s="5"/>
@@ -5297,7 +5300,7 @@
       <c r="H123" s="6"/>
       <c r="I123" s="6"/>
     </row>
-    <row r="124" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="124" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B124" s="5"/>
       <c r="C124" s="5"/>
       <c r="D124" s="5"/>
@@ -5307,7 +5310,7 @@
       <c r="H124" s="6"/>
       <c r="I124" s="6"/>
     </row>
-    <row r="125" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="125" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B125" s="5"/>
       <c r="C125" s="5"/>
       <c r="D125" s="5"/>
@@ -5317,7 +5320,7 @@
       <c r="H125" s="6"/>
       <c r="I125" s="6"/>
     </row>
-    <row r="126" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="126" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B126" s="5"/>
       <c r="C126" s="5"/>
       <c r="D126" s="5"/>
@@ -5327,7 +5330,7 @@
       <c r="H126" s="6"/>
       <c r="I126" s="6"/>
     </row>
-    <row r="127" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="127" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B127" s="5"/>
       <c r="C127" s="5"/>
       <c r="D127" s="5"/>
@@ -5337,7 +5340,7 @@
       <c r="H127" s="6"/>
       <c r="I127" s="6"/>
     </row>
-    <row r="128" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="128" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B128" s="5"/>
       <c r="C128" s="5"/>
       <c r="D128" s="5"/>
@@ -5347,7 +5350,7 @@
       <c r="H128" s="6"/>
       <c r="I128" s="6"/>
     </row>
-    <row r="129" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="129" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B129" s="5"/>
       <c r="C129" s="5"/>
       <c r="D129" s="5"/>
@@ -5357,7 +5360,7 @@
       <c r="H129" s="6"/>
       <c r="I129" s="6"/>
     </row>
-    <row r="130" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="130" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B130" s="5"/>
       <c r="C130" s="5"/>
       <c r="D130" s="5"/>
@@ -5367,7 +5370,7 @@
       <c r="H130" s="6"/>
       <c r="I130" s="6"/>
     </row>
-    <row r="131" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="131" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B131" s="5"/>
       <c r="C131" s="5"/>
       <c r="D131" s="5"/>
@@ -5377,7 +5380,7 @@
       <c r="H131" s="6"/>
       <c r="I131" s="6"/>
     </row>
-    <row r="132" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="132" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B132" s="5"/>
       <c r="C132" s="5"/>
       <c r="D132" s="5"/>
@@ -5387,7 +5390,7 @@
       <c r="H132" s="6"/>
       <c r="I132" s="6"/>
     </row>
-    <row r="133" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="133" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B133" s="5"/>
       <c r="C133" s="5"/>
       <c r="D133" s="5"/>
@@ -5397,7 +5400,7 @@
       <c r="H133" s="6"/>
       <c r="I133" s="6"/>
     </row>
-    <row r="134" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="134" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B134" s="5"/>
       <c r="C134" s="5"/>
       <c r="D134" s="5"/>
@@ -5407,7 +5410,7 @@
       <c r="H134" s="6"/>
       <c r="I134" s="6"/>
     </row>
-    <row r="135" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="135" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B135" s="5"/>
       <c r="C135" s="5"/>
       <c r="D135" s="5"/>
@@ -5417,7 +5420,7 @@
       <c r="H135" s="6"/>
       <c r="I135" s="6"/>
     </row>
-    <row r="136" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="136" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B136" s="5"/>
       <c r="C136" s="5"/>
       <c r="D136" s="5"/>
@@ -5427,7 +5430,7 @@
       <c r="H136" s="6"/>
       <c r="I136" s="6"/>
     </row>
-    <row r="137" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="137" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B137" s="5"/>
       <c r="C137" s="5"/>
       <c r="D137" s="5"/>
@@ -5437,7 +5440,7 @@
       <c r="H137" s="6"/>
       <c r="I137" s="6"/>
     </row>
-    <row r="138" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="138" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B138" s="5"/>
       <c r="C138" s="5"/>
       <c r="D138" s="5"/>
@@ -5447,7 +5450,7 @@
       <c r="H138" s="6"/>
       <c r="I138" s="6"/>
     </row>
-    <row r="139" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="139" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B139" s="5"/>
       <c r="C139" s="5"/>
       <c r="D139" s="5"/>
@@ -5457,7 +5460,7 @@
       <c r="H139" s="6"/>
       <c r="I139" s="6"/>
     </row>
-    <row r="140" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="140" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B140" s="5"/>
       <c r="C140" s="5"/>
       <c r="D140" s="5"/>
@@ -5467,7 +5470,7 @@
       <c r="H140" s="6"/>
       <c r="I140" s="6"/>
     </row>
-    <row r="141" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="141" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B141" s="5"/>
       <c r="C141" s="5"/>
       <c r="D141" s="5"/>
@@ -5477,7 +5480,7 @@
       <c r="H141" s="6"/>
       <c r="I141" s="6"/>
     </row>
-    <row r="142" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="142" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B142" s="5"/>
       <c r="C142" s="5"/>
       <c r="D142" s="5"/>
@@ -5487,7 +5490,7 @@
       <c r="H142" s="6"/>
       <c r="I142" s="6"/>
     </row>
-    <row r="143" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="143" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B143" s="5"/>
       <c r="C143" s="5"/>
       <c r="D143" s="5"/>
@@ -5497,7 +5500,7 @@
       <c r="H143" s="6"/>
       <c r="I143" s="6"/>
     </row>
-    <row r="144" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="144" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B144" s="5"/>
       <c r="C144" s="5"/>
       <c r="D144" s="5"/>
@@ -5507,7 +5510,7 @@
       <c r="H144" s="6"/>
       <c r="I144" s="6"/>
     </row>
-    <row r="145" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="145" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B145" s="5"/>
       <c r="C145" s="5"/>
       <c r="D145" s="5"/>
@@ -5517,7 +5520,7 @@
       <c r="H145" s="6"/>
       <c r="I145" s="6"/>
     </row>
-    <row r="146" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="146" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B146" s="5"/>
       <c r="C146" s="5"/>
       <c r="D146" s="5"/>
@@ -5527,7 +5530,7 @@
       <c r="H146" s="6"/>
       <c r="I146" s="6"/>
     </row>
-    <row r="147" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="147" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B147" s="5"/>
       <c r="C147" s="5"/>
       <c r="D147" s="5"/>
@@ -5537,7 +5540,7 @@
       <c r="H147" s="6"/>
       <c r="I147" s="6"/>
     </row>
-    <row r="148" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="148" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B148" s="5"/>
       <c r="C148" s="5"/>
       <c r="D148" s="5"/>
@@ -5547,7 +5550,7 @@
       <c r="H148" s="6"/>
       <c r="I148" s="6"/>
     </row>
-    <row r="149" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="149" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B149" s="5"/>
       <c r="C149" s="5"/>
       <c r="D149" s="5"/>
@@ -5557,7 +5560,7 @@
       <c r="H149" s="6"/>
       <c r="I149" s="6"/>
     </row>
-    <row r="150" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="150" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B150" s="5"/>
       <c r="C150" s="5"/>
       <c r="D150" s="5"/>
@@ -5567,7 +5570,7 @@
       <c r="H150" s="6"/>
       <c r="I150" s="6"/>
     </row>
-    <row r="151" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="151" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B151" s="5"/>
       <c r="C151" s="5"/>
       <c r="D151" s="5"/>
@@ -5577,7 +5580,7 @@
       <c r="H151" s="6"/>
       <c r="I151" s="6"/>
     </row>
-    <row r="152" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="152" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B152" s="5"/>
       <c r="C152" s="5"/>
       <c r="D152" s="5"/>
@@ -5587,7 +5590,7 @@
       <c r="H152" s="6"/>
       <c r="I152" s="6"/>
     </row>
-    <row r="153" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="153" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B153" s="5"/>
       <c r="C153" s="5"/>
       <c r="D153" s="5"/>
@@ -5597,7 +5600,7 @@
       <c r="H153" s="6"/>
       <c r="I153" s="6"/>
     </row>
-    <row r="154" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="154" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B154" s="5"/>
       <c r="C154" s="5"/>
       <c r="D154" s="5"/>
@@ -5607,7 +5610,7 @@
       <c r="H154" s="6"/>
       <c r="I154" s="6"/>
     </row>
-    <row r="155" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="155" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B155" s="5"/>
       <c r="C155" s="5"/>
       <c r="D155" s="5"/>
@@ -5617,7 +5620,7 @@
       <c r="H155" s="6"/>
       <c r="I155" s="6"/>
     </row>
-    <row r="156" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="156" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B156" s="5"/>
       <c r="C156" s="5"/>
       <c r="D156" s="5"/>
@@ -5627,7 +5630,7 @@
       <c r="H156" s="6"/>
       <c r="I156" s="6"/>
     </row>
-    <row r="157" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="157" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B157" s="5"/>
       <c r="C157" s="5"/>
       <c r="D157" s="5"/>
@@ -5637,7 +5640,7 @@
       <c r="H157" s="6"/>
       <c r="I157" s="6"/>
     </row>
-    <row r="158" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="158" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B158" s="5"/>
       <c r="C158" s="5"/>
       <c r="D158" s="5"/>
@@ -5647,7 +5650,7 @@
       <c r="H158" s="6"/>
       <c r="I158" s="6"/>
     </row>
-    <row r="159" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="159" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B159" s="5"/>
       <c r="C159" s="5"/>
       <c r="D159" s="5"/>
@@ -5657,7 +5660,7 @@
       <c r="H159" s="6"/>
       <c r="I159" s="6"/>
     </row>
-    <row r="160" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="160" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B160" s="5"/>
       <c r="C160" s="5"/>
       <c r="D160" s="5"/>
@@ -5667,7 +5670,7 @@
       <c r="H160" s="6"/>
       <c r="I160" s="6"/>
     </row>
-    <row r="161" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="161" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B161" s="5"/>
       <c r="C161" s="5"/>
       <c r="D161" s="5"/>
@@ -5677,7 +5680,7 @@
       <c r="H161" s="6"/>
       <c r="I161" s="6"/>
     </row>
-    <row r="162" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="162" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B162" s="5"/>
       <c r="C162" s="5"/>
       <c r="D162" s="5"/>
@@ -5687,7 +5690,7 @@
       <c r="H162" s="6"/>
       <c r="I162" s="6"/>
     </row>
-    <row r="163" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="163" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B163" s="5"/>
       <c r="C163" s="5"/>
       <c r="D163" s="5"/>
@@ -5697,7 +5700,7 @@
       <c r="H163" s="6"/>
       <c r="I163" s="6"/>
     </row>
-    <row r="164" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="164" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B164" s="5"/>
       <c r="C164" s="5"/>
       <c r="D164" s="5"/>
@@ -5707,7 +5710,7 @@
       <c r="H164" s="6"/>
       <c r="I164" s="6"/>
     </row>
-    <row r="165" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="165" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B165" s="5"/>
       <c r="C165" s="5"/>
       <c r="D165" s="5"/>
@@ -5717,7 +5720,7 @@
       <c r="H165" s="6"/>
       <c r="I165" s="6"/>
     </row>
-    <row r="166" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="166" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B166" s="5"/>
       <c r="C166" s="5"/>
       <c r="D166" s="5"/>
@@ -5727,7 +5730,7 @@
       <c r="H166" s="6"/>
       <c r="I166" s="6"/>
     </row>
-    <row r="167" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="167" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B167" s="5"/>
       <c r="C167" s="5"/>
       <c r="D167" s="5"/>
@@ -5737,7 +5740,7 @@
       <c r="H167" s="6"/>
       <c r="I167" s="6"/>
     </row>
-    <row r="168" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="168" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B168" s="5"/>
       <c r="C168" s="5"/>
       <c r="D168" s="5"/>
@@ -5747,7 +5750,7 @@
       <c r="H168" s="6"/>
       <c r="I168" s="6"/>
     </row>
-    <row r="169" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="169" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B169" s="5"/>
       <c r="C169" s="5"/>
       <c r="D169" s="5"/>
@@ -5757,7 +5760,7 @@
       <c r="H169" s="6"/>
       <c r="I169" s="6"/>
     </row>
-    <row r="170" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="170" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B170" s="5"/>
       <c r="C170" s="5"/>
       <c r="D170" s="5"/>
@@ -5767,7 +5770,7 @@
       <c r="H170" s="6"/>
       <c r="I170" s="6"/>
     </row>
-    <row r="171" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="171" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B171" s="5"/>
       <c r="C171" s="5"/>
       <c r="D171" s="5"/>
@@ -5777,7 +5780,7 @@
       <c r="H171" s="6"/>
       <c r="I171" s="6"/>
     </row>
-    <row r="172" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="172" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B172" s="5"/>
       <c r="C172" s="5"/>
       <c r="D172" s="5"/>
@@ -5787,7 +5790,7 @@
       <c r="H172" s="6"/>
       <c r="I172" s="6"/>
     </row>
-    <row r="173" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="173" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B173" s="5"/>
       <c r="C173" s="5"/>
       <c r="D173" s="5"/>
@@ -5797,7 +5800,7 @@
       <c r="H173" s="6"/>
       <c r="I173" s="6"/>
     </row>
-    <row r="174" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="174" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B174" s="5"/>
       <c r="C174" s="5"/>
       <c r="D174" s="5"/>
@@ -5807,7 +5810,7 @@
       <c r="H174" s="6"/>
       <c r="I174" s="6"/>
     </row>
-    <row r="175" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="175" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B175" s="5"/>
       <c r="C175" s="5"/>
       <c r="D175" s="5"/>
@@ -5817,7 +5820,7 @@
       <c r="H175" s="6"/>
       <c r="I175" s="6"/>
     </row>
-    <row r="176" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="176" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B176" s="5"/>
       <c r="C176" s="5"/>
       <c r="D176" s="5"/>
@@ -5827,7 +5830,7 @@
       <c r="H176" s="6"/>
       <c r="I176" s="6"/>
     </row>
-    <row r="177" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="177" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B177" s="5"/>
       <c r="C177" s="5"/>
       <c r="D177" s="5"/>
@@ -5837,7 +5840,7 @@
       <c r="H177" s="6"/>
       <c r="I177" s="6"/>
     </row>
-    <row r="178" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="178" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B178" s="5"/>
       <c r="C178" s="5"/>
       <c r="D178" s="5"/>
@@ -5847,7 +5850,7 @@
       <c r="H178" s="6"/>
       <c r="I178" s="6"/>
     </row>
-    <row r="179" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="179" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B179" s="5"/>
       <c r="C179" s="5"/>
       <c r="D179" s="5"/>
@@ -5857,7 +5860,7 @@
       <c r="H179" s="6"/>
       <c r="I179" s="6"/>
     </row>
-    <row r="180" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="180" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B180" s="5"/>
       <c r="C180" s="5"/>
       <c r="D180" s="5"/>
@@ -5867,7 +5870,7 @@
       <c r="H180" s="6"/>
       <c r="I180" s="6"/>
     </row>
-    <row r="181" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="181" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B181" s="5"/>
       <c r="C181" s="5"/>
       <c r="D181" s="5"/>
@@ -5877,7 +5880,7 @@
       <c r="H181" s="6"/>
       <c r="I181" s="6"/>
     </row>
-    <row r="182" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="182" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B182" s="5"/>
       <c r="C182" s="5"/>
       <c r="D182" s="5"/>
@@ -5887,7 +5890,7 @@
       <c r="H182" s="6"/>
       <c r="I182" s="6"/>
     </row>
-    <row r="183" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="183" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B183" s="5"/>
       <c r="C183" s="5"/>
       <c r="D183" s="5"/>
@@ -5897,7 +5900,7 @@
       <c r="H183" s="6"/>
       <c r="I183" s="6"/>
     </row>
-    <row r="184" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="184" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B184" s="5"/>
       <c r="C184" s="5"/>
       <c r="D184" s="5"/>
@@ -5907,7 +5910,7 @@
       <c r="H184" s="6"/>
       <c r="I184" s="6"/>
     </row>
-    <row r="185" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="185" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B185" s="5"/>
       <c r="C185" s="5"/>
       <c r="D185" s="5"/>
@@ -5917,7 +5920,7 @@
       <c r="H185" s="6"/>
       <c r="I185" s="6"/>
     </row>
-    <row r="186" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="186" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B186" s="5"/>
       <c r="C186" s="5"/>
       <c r="D186" s="5"/>
@@ -5927,7 +5930,7 @@
       <c r="H186" s="6"/>
       <c r="I186" s="6"/>
     </row>
-    <row r="187" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="187" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B187" s="5"/>
       <c r="C187" s="5"/>
       <c r="D187" s="5"/>
@@ -5937,7 +5940,7 @@
       <c r="H187" s="6"/>
       <c r="I187" s="6"/>
     </row>
-    <row r="188" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="188" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B188" s="5"/>
       <c r="C188" s="5"/>
       <c r="D188" s="5"/>
@@ -5947,7 +5950,7 @@
       <c r="H188" s="6"/>
       <c r="I188" s="6"/>
     </row>
-    <row r="189" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="189" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B189" s="5"/>
       <c r="C189" s="5"/>
       <c r="D189" s="5"/>
@@ -5957,7 +5960,7 @@
       <c r="H189" s="6"/>
       <c r="I189" s="6"/>
     </row>
-    <row r="190" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="190" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B190" s="5"/>
       <c r="C190" s="5"/>
       <c r="D190" s="5"/>
@@ -5967,7 +5970,7 @@
       <c r="H190" s="6"/>
       <c r="I190" s="6"/>
     </row>
-    <row r="191" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="191" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B191" s="5"/>
       <c r="C191" s="5"/>
       <c r="D191" s="5"/>
@@ -5977,7 +5980,7 @@
       <c r="H191" s="6"/>
       <c r="I191" s="6"/>
     </row>
-    <row r="192" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="192" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B192" s="5"/>
       <c r="C192" s="5"/>
       <c r="D192" s="5"/>
@@ -5987,7 +5990,7 @@
       <c r="H192" s="6"/>
       <c r="I192" s="6"/>
     </row>
-    <row r="193" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="193" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B193" s="5"/>
       <c r="C193" s="5"/>
       <c r="D193" s="5"/>
@@ -5997,7 +6000,7 @@
       <c r="H193" s="6"/>
       <c r="I193" s="6"/>
     </row>
-    <row r="194" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="194" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B194" s="5"/>
       <c r="C194" s="5"/>
       <c r="D194" s="5"/>
@@ -6007,7 +6010,7 @@
       <c r="H194" s="6"/>
       <c r="I194" s="6"/>
     </row>
-    <row r="195" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="195" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B195" s="5"/>
       <c r="C195" s="5"/>
       <c r="D195" s="5"/>
@@ -6017,7 +6020,7 @@
       <c r="H195" s="6"/>
       <c r="I195" s="6"/>
     </row>
-    <row r="196" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="196" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B196" s="5"/>
       <c r="C196" s="5"/>
       <c r="D196" s="5"/>
@@ -6027,7 +6030,7 @@
       <c r="H196" s="6"/>
       <c r="I196" s="6"/>
     </row>
-    <row r="197" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="197" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B197" s="5"/>
       <c r="C197" s="5"/>
       <c r="D197" s="5"/>
@@ -6037,7 +6040,7 @@
       <c r="H197" s="6"/>
       <c r="I197" s="6"/>
     </row>
-    <row r="198" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="198" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B198" s="5"/>
       <c r="C198" s="5"/>
       <c r="D198" s="5"/>
@@ -6047,7 +6050,7 @@
       <c r="H198" s="6"/>
       <c r="I198" s="6"/>
     </row>
-    <row r="199" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="199" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B199" s="5"/>
       <c r="C199" s="5"/>
       <c r="D199" s="5"/>
@@ -6057,7 +6060,7 @@
       <c r="H199" s="6"/>
       <c r="I199" s="6"/>
     </row>
-    <row r="200" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="200" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B200" s="5"/>
       <c r="C200" s="5"/>
       <c r="D200" s="5"/>
@@ -6082,19 +6085,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FB6B1BF-BEDD-44AB-AFC3-888836F1C221}">
   <dimension ref="A2:E41"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="E37" sqref="E37"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="107" workbookViewId="0">
+      <selection activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="2.453125" customWidth="1"/>
-    <col min="2" max="2" width="62.453125" customWidth="1"/>
-    <col min="3" max="3" width="10.54296875" customWidth="1"/>
-    <col min="4" max="5" width="32.7265625" customWidth="1"/>
+    <col min="1" max="1" width="2.5" customWidth="1"/>
+    <col min="2" max="2" width="62.5" customWidth="1"/>
+    <col min="3" max="3" width="10.5" customWidth="1"/>
+    <col min="4" max="5" width="32.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="17"/>
       <c r="B2" s="34" t="s">
         <v>28</v>
@@ -6107,7 +6110,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
         <v>31</v>
       </c>
@@ -6118,7 +6121,7 @@
         <v>2.9049999999999999E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B4" s="49" t="s">
         <v>32</v>
       </c>
@@ -6129,7 +6132,7 @@
         <v>9.7999999999999997E-3</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B5" s="10" t="s">
         <v>33</v>
       </c>
@@ -6142,7 +6145,7 @@
         <v>1.925E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B6" s="49" t="s">
         <v>34</v>
       </c>
@@ -6154,7 +6157,7 @@
         <v>1.9199999999999998E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B7" s="49" t="s">
         <v>35</v>
       </c>
@@ -6163,7 +6166,7 @@
       </c>
       <c r="E7" s="56"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B8" s="49" t="s">
         <v>36</v>
       </c>
@@ -6176,7 +6179,7 @@
         <v>1.0001801599999999E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B9" s="10" t="s">
         <v>37</v>
       </c>
@@ -6190,7 +6193,7 @@
         <v>9.3451801599999995E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" s="17"/>
       <c r="B11" s="18" t="s">
         <v>38</v>
@@ -6199,7 +6202,7 @@
       <c r="D11" s="19"/>
       <c r="E11" s="15"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="20"/>
       <c r="B12" s="21" t="s">
         <v>39</v>
@@ -6214,7 +6217,7 @@
         <v>China</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="20"/>
       <c r="B13" s="22" t="s">
         <v>40</v>
@@ -6230,7 +6233,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="20"/>
       <c r="B14" s="22" t="s">
         <v>42</v>
@@ -6246,7 +6249,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="20"/>
       <c r="B15" s="22" t="s">
         <v>44</v>
@@ -6262,7 +6265,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="20"/>
       <c r="B16" s="20" t="s">
         <v>46</v>
@@ -6278,7 +6281,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="20"/>
       <c r="B17" s="28" t="s">
         <v>48</v>
@@ -6296,7 +6299,7 @@
         <v>Mixed</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="20"/>
       <c r="B18" s="22" t="s">
         <v>49</v>
@@ -6312,7 +6315,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" s="20"/>
       <c r="B19" s="22" t="s">
         <v>51</v>
@@ -6328,7 +6331,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" s="20"/>
       <c r="B20" s="22" t="s">
         <v>53</v>
@@ -6344,7 +6347,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" s="20"/>
       <c r="B21" s="22" t="s">
         <v>55</v>
@@ -6360,7 +6363,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" s="20"/>
       <c r="B22" s="28" t="s">
         <v>57</v>
@@ -6378,7 +6381,7 @@
         <v>Mixed</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" s="20"/>
       <c r="B23" s="22" t="s">
         <v>58</v>
@@ -6394,7 +6397,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" s="20"/>
       <c r="B24" s="22" t="s">
         <v>60</v>
@@ -6410,7 +6413,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" s="20"/>
       <c r="B25" s="22" t="s">
         <v>62</v>
@@ -6426,7 +6429,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" s="20"/>
       <c r="B26" s="22" t="s">
         <v>64</v>
@@ -6442,7 +6445,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" s="20"/>
       <c r="B27" s="28" t="s">
         <v>66</v>
@@ -6460,7 +6463,7 @@
         <v>Mixed</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" s="20"/>
       <c r="B28" s="22" t="s">
         <v>67</v>
@@ -6476,7 +6479,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" s="20"/>
       <c r="B29" s="22" t="s">
         <v>69</v>
@@ -6492,7 +6495,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" s="20"/>
       <c r="B30" s="22" t="s">
         <v>71</v>
@@ -6508,7 +6511,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" s="20"/>
       <c r="B31" s="22" t="s">
         <v>73</v>
@@ -6524,7 +6527,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32" s="20"/>
       <c r="B32" s="28" t="s">
         <v>75</v>
@@ -6542,7 +6545,7 @@
         <v>Mixed</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" s="20"/>
       <c r="B33" s="36" t="s">
         <v>76</v>
@@ -6560,10 +6563,10 @@
         <v>unclear</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" s="20"/>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35" s="20"/>
       <c r="B35" s="21" t="s">
         <v>77</v>
@@ -6576,7 +6579,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36" s="20"/>
       <c r="B36" s="20" t="s">
         <v>78</v>
@@ -6592,7 +6595,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B37" s="20" t="s">
         <v>80</v>
       </c>
@@ -6609,7 +6612,7 @@
         <v>Cold - Low</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B38" s="20" t="s">
         <v>81</v>
       </c>
@@ -6626,7 +6629,7 @@
         <v>Cold - Negative</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B39" s="20" t="s">
         <v>82</v>
       </c>
@@ -6643,7 +6646,7 @@
         <v>Cold - High</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B40" s="20" t="s">
         <v>83</v>
       </c>
@@ -6660,7 +6663,7 @@
         <v>Cold - Wide</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B41" s="37" t="s">
         <v>84</v>
       </c>

--- a/financial_models/Opportunities/Monitor/Monitor.xlsx
+++ b/financial_models/Opportunities/Monitor/Monitor.xlsx
@@ -5,17 +5,17 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kamanl/PycharmProjects/InvestmentManagement/financial_models/Opportunities/Monitor/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/0b10873df2abd437/Valuation - Template/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF5A4CB4-2BC5-E243-AC43-55A9B0102B75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="226" documentId="13_ncr:1_{C08AB8D0-CF4A-452A-99AA-E9E12773CBFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BD23625E-1CEE-5B41-82EC-B3159A1A15EE}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Opportunities" sheetId="1" r:id="rId1"/>
     <sheet name="Current_Holdings" sheetId="3" r:id="rId2"/>
-    <sheet name="Market" sheetId="4" r:id="rId3"/>
+    <sheet name="Discount rates" sheetId="4" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Current_Holdings!$B$6:$J$6</definedName>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="98">
   <si>
     <t>Opportunities Monitor</t>
   </si>
@@ -92,6 +92,24 @@
     <t>HKG</t>
   </si>
   <si>
+    <t>1475.HK</t>
+  </si>
+  <si>
+    <t>NISSIN FOODS</t>
+  </si>
+  <si>
+    <t>1766.HK</t>
+  </si>
+  <si>
+    <t>CRRC</t>
+  </si>
+  <si>
+    <t>6186.HK</t>
+  </si>
+  <si>
+    <t>CHINA FEIHE</t>
+  </si>
+  <si>
     <t>Current Holdings Monitor</t>
   </si>
   <si>
@@ -140,21 +158,9 @@
     <t>- Expected core inflation rate (use 10Y TIPS if available) =</t>
   </si>
   <si>
-    <t>⇒ Real risk-free rate</t>
-  </si>
-  <si>
-    <t>+ Emerging Market Premium</t>
-  </si>
-  <si>
-    <t>+ Long-run ERP</t>
-  </si>
-  <si>
     <t>+ Interest Rate Risk Premium</t>
   </si>
   <si>
-    <t>⇒ Adjusted Discount rate</t>
-  </si>
-  <si>
     <t>Current Environment Assessment</t>
   </si>
   <si>
@@ -257,13 +263,7 @@
     <t>14. Recent performance/Prospective returns:</t>
   </si>
   <si>
-    <t>Cold - Weak</t>
-  </si>
-  <si>
     <t>16. Popular qualities:</t>
-  </si>
-  <si>
-    <t>Cold - "It's uninvestable"</t>
   </si>
   <si>
     <t>Capital market Sentiment</t>
@@ -315,9 +315,6 @@
     <t>1. Central bank behavior</t>
   </si>
   <si>
-    <t>Hot - Stimulative</t>
-  </si>
-  <si>
     <t>2. Inflation</t>
   </si>
   <si>
@@ -345,6 +342,61 @@
       <t>Interest rate risk premium</t>
     </r>
   </si>
+  <si>
+    <t>Equity Risk Premium</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">⇒ </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Ajdusted ERP</t>
+    </r>
+  </si>
+  <si>
+    <t>+ Adjusted ERP</t>
+  </si>
+  <si>
+    <t>Hot - Positive</t>
+  </si>
+  <si>
+    <t>Mixed</t>
+  </si>
+  <si>
+    <t>Hot - Happy to hold</t>
+  </si>
+  <si>
+    <t>Mixed - "Market has bottomed"</t>
+  </si>
+  <si>
+    <t>Cold - Caution and discipline</t>
+  </si>
+  <si>
+    <t>Hot - Strong</t>
+  </si>
+  <si>
+    <t>⇒ Real risk-free rate +</t>
+  </si>
+  <si>
+    <t>Economic performance:</t>
+  </si>
+  <si>
+    <t>= Discount Rate factor</t>
+  </si>
+  <si>
+    <t>Cold - Tightening</t>
+  </si>
+  <si>
+    <t>Manual Adjustment</t>
+  </si>
 </sst>
 </file>
 
@@ -353,7 +405,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -450,6 +502,20 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="7">
     <fill>
@@ -489,7 +555,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="19">
+  <borders count="22">
     <border>
       <left/>
       <right/>
@@ -674,43 +740,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="dotted">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="dotted">
-        <color indexed="64"/>
-      </top>
-      <bottom style="dotted">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="dotted">
-        <color indexed="64"/>
-      </right>
-      <top style="dotted">
-        <color indexed="64"/>
-      </top>
-      <bottom style="dotted">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="dotted">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="dotted">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right style="dotted">
         <color indexed="64"/>
@@ -721,12 +750,78 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="dotted">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dotted">
+        <color indexed="64"/>
+      </left>
+      <right style="dotted">
+        <color indexed="64"/>
+      </right>
+      <top style="dotted">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dotted">
+        <color indexed="64"/>
+      </left>
+      <right style="dotted">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dotted">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="dotted">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="dotted">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dotted">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="dotted">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
@@ -794,9 +889,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -804,9 +896,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -814,13 +903,7 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="10" fontId="8" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="10" fontId="8" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="10" fontId="11" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -829,19 +912,13 @@
     <xf numFmtId="10" fontId="0" fillId="6" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="10" fontId="11" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="11" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="11" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
@@ -860,10 +937,54 @@
     <xf numFmtId="3" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="10" fontId="8" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="10" fontId="8" fillId="3" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="10" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="11" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="10" fontId="8" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="3" fillId="5" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="11" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="11" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="8" fillId="4" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="8" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="8" fillId="4" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -875,6 +996,8 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FF0000FF"/>
+      <color rgb="FFFFFFCC"/>
       <color rgb="FFB6D7A8"/>
     </mruColors>
   </colors>
@@ -1189,7 +1312,7 @@
   <dimension ref="A2:N200"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="M15" sqref="M15"/>
+      <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1271,78 +1394,145 @@
         <v>16</v>
       </c>
       <c r="E5" s="7">
-        <v>3.02</v>
+        <v>2.6</v>
       </c>
       <c r="F5" s="6">
-        <v>0.1754099224177379</v>
+        <v>0.3072047302954104</v>
       </c>
       <c r="G5" s="6">
-        <v>7.4305508716723256E-2</v>
+        <v>0.13489889552202361</v>
       </c>
       <c r="H5" s="6">
         <f>F5-G5</f>
-        <v>0.10110441370101464</v>
+        <v>0.17230583477338679</v>
       </c>
       <c r="I5" s="5">
-        <v>0.34528085710129486</v>
+        <v>0.14560000000000001</v>
       </c>
       <c r="J5" s="6">
         <f>I5/E5</f>
-        <v>0.11433140963619035</v>
+        <v>5.6000000000000001E-2</v>
       </c>
       <c r="K5" s="7">
-        <v>2</v>
+        <v>5.3</v>
       </c>
       <c r="L5" s="8">
-        <v>45001</v>
-      </c>
-      <c r="M5" s="8">
-        <v>3</v>
-      </c>
-      <c r="N5" t="b">
-        <v>1</v>
-      </c>
+        <v>44925</v>
+      </c>
+      <c r="M5" s="8"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B6" s="5"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="6"/>
-      <c r="G6" s="6"/>
-      <c r="H6" s="6"/>
-      <c r="I6" s="5"/>
-      <c r="J6" s="6"/>
-      <c r="K6" s="7"/>
-      <c r="L6" s="8"/>
+      <c r="B6" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6" s="7">
+        <v>6.54</v>
+      </c>
+      <c r="F6" s="6">
+        <v>4.981606450514553E-2</v>
+      </c>
+      <c r="G6" s="6">
+        <v>0.10891423458942941</v>
+      </c>
+      <c r="H6" s="6">
+        <f>F6-G6</f>
+        <v>-5.9098170084283877E-2</v>
+      </c>
+      <c r="I6" s="5">
+        <v>0.14560000000000001</v>
+      </c>
+      <c r="J6" s="6">
+        <f>I6/E6</f>
+        <v>2.2262996941896027E-2</v>
+      </c>
+      <c r="K6" s="7">
+        <v>5.3</v>
+      </c>
+      <c r="L6" s="8">
+        <v>45015</v>
+      </c>
       <c r="M6" s="8"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B7" s="5"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="6"/>
-      <c r="G7" s="6"/>
-      <c r="H7" s="6"/>
-      <c r="I7" s="5"/>
-      <c r="J7" s="6"/>
-      <c r="K7" s="7"/>
-      <c r="L7" s="8"/>
+      <c r="B7" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E7" s="7">
+        <v>3.11</v>
+      </c>
+      <c r="F7" s="6">
+        <v>-0.32818777766352203</v>
+      </c>
+      <c r="G7" s="6">
+        <v>0.27236067307556133</v>
+      </c>
+      <c r="H7" s="6">
+        <f>F7-G7</f>
+        <v>-0.60054845073908336</v>
+      </c>
+      <c r="I7" s="5">
+        <v>0.14560000000000001</v>
+      </c>
+      <c r="J7" s="6">
+        <f>I7/E7</f>
+        <v>4.6816720257234733E-2</v>
+      </c>
+      <c r="K7" s="7">
+        <v>5.3</v>
+      </c>
+      <c r="L7" s="8">
+        <v>45015</v>
+      </c>
       <c r="M7" s="8"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B8" s="5"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="6"/>
-      <c r="G8" s="6"/>
-      <c r="H8" s="6"/>
-      <c r="I8" s="5"/>
-      <c r="J8" s="6"/>
-      <c r="K8" s="7"/>
-      <c r="L8" s="8"/>
+      <c r="B8" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E8" s="7">
+        <v>6.61</v>
+      </c>
+      <c r="F8" s="6">
+        <v>-0.68464668619756364</v>
+      </c>
+      <c r="G8" s="6">
+        <v>7.1411065827984785</v>
+      </c>
+      <c r="H8" s="6">
+        <f>F8-G8</f>
+        <v>-7.8257532689960421</v>
+      </c>
+      <c r="I8" s="5">
+        <v>0.14560000000000001</v>
+      </c>
+      <c r="J8" s="6">
+        <f>I8/E8</f>
+        <v>2.2027231467473526E-2</v>
+      </c>
+      <c r="K8" s="7">
+        <v>5.3</v>
+      </c>
+      <c r="L8" s="8">
+        <v>44925</v>
+      </c>
       <c r="M8" s="8"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.2">
@@ -4062,7 +4252,7 @@
     <row r="2" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
       <c r="B2" s="13" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="C2" s="14"/>
       <c r="D2" s="14"/>
@@ -4070,31 +4260,31 @@
       <c r="F2" s="15"/>
       <c r="G2" s="15"/>
       <c r="H2" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="I2" s="52">
-        <v>44929</v>
-      </c>
-      <c r="J2" s="52"/>
+        <v>24</v>
+      </c>
+      <c r="I2" s="46">
+        <v>44902</v>
+      </c>
+      <c r="J2" s="46"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B3" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="D3" s="50"/>
-      <c r="E3" s="51"/>
+        <v>25</v>
+      </c>
+      <c r="D3" s="44"/>
+      <c r="E3" s="45"/>
       <c r="F3" s="12" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B4" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="D4" s="53"/>
-      <c r="E4" s="54"/>
+        <v>27</v>
+      </c>
+      <c r="D4" s="47"/>
+      <c r="E4" s="48"/>
       <c r="F4" s="11" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
@@ -4108,32 +4298,47 @@
         <v>3</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="I6" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="J6" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B7" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E7" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="J6" s="4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B7" s="5"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="7"/>
-      <c r="G7" s="9"/>
-      <c r="H7" s="9"/>
+      <c r="F7" s="7">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="G7" s="9">
+        <v>22000</v>
+      </c>
+      <c r="H7" s="9">
+        <f>F7*G7</f>
+        <v>50599.999999999993</v>
+      </c>
       <c r="I7" s="6"/>
       <c r="J7" s="6"/>
     </row>
@@ -6083,173 +6288,174 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FB6B1BF-BEDD-44AB-AFC3-888836F1C221}">
-  <dimension ref="A2:E41"/>
+  <dimension ref="A2:F45"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="107" workbookViewId="0">
-      <selection activeCell="E32" sqref="E32"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A6" zoomScale="137" workbookViewId="0">
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="2.5" customWidth="1"/>
     <col min="2" max="2" width="62.5" customWidth="1"/>
-    <col min="3" max="3" width="10.5" customWidth="1"/>
-    <col min="4" max="5" width="32.6640625" customWidth="1"/>
+    <col min="3" max="3" width="10.5" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="32.6640625" customWidth="1"/>
+    <col min="5" max="5" width="10.5" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="32.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="17"/>
-      <c r="B2" s="34" t="s">
-        <v>28</v>
-      </c>
-      <c r="C2" s="15"/>
-      <c r="D2" s="45" t="s">
-        <v>29</v>
-      </c>
-      <c r="E2" s="45" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B2" s="33" t="s">
+        <v>94</v>
+      </c>
+      <c r="D2" s="40" t="s">
+        <v>35</v>
+      </c>
+      <c r="E2" s="15"/>
+      <c r="F2" s="40" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
-        <v>31</v>
-      </c>
-      <c r="D3" s="40">
+        <v>37</v>
+      </c>
+      <c r="D3" s="37">
         <v>3.8399999999999997E-2</v>
       </c>
-      <c r="E3" s="40">
+      <c r="F3" s="37">
         <v>2.9049999999999999E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B4" s="49" t="s">
-        <v>32</v>
-      </c>
-      <c r="D4" s="39">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B4" s="43" t="s">
+        <v>38</v>
+      </c>
+      <c r="D4" s="58">
         <v>1.584E-2</v>
       </c>
-      <c r="E4" s="39">
+      <c r="E4" s="15"/>
+      <c r="F4" s="58">
         <v>9.7999999999999997E-3</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B5" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="D5" s="41">
+    <row r="6" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A6" s="17"/>
+      <c r="B6" s="33" t="s">
+        <v>34</v>
+      </c>
+      <c r="C6" s="15"/>
+      <c r="D6" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="E6" s="15"/>
+      <c r="F6" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B7" s="53" t="s">
+        <v>93</v>
+      </c>
+      <c r="D7" s="55">
         <f>D3-D4</f>
         <v>2.2559999999999997E-2</v>
       </c>
-      <c r="E5" s="41">
-        <f>E3-E4</f>
+      <c r="F7" s="55">
+        <f>F3-F4</f>
         <v>1.925E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B6" s="49" t="s">
-        <v>34</v>
-      </c>
-      <c r="D6" s="42">
-        <v>0</v>
-      </c>
-      <c r="E6" s="39">
-        <f>D3/2</f>
-        <v>1.9199999999999998E-2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B7" s="49" t="s">
-        <v>35</v>
-      </c>
-      <c r="D7" s="55">
-        <v>4.4999999999999998E-2</v>
-      </c>
-      <c r="E7" s="56"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B8" s="49" t="s">
-        <v>36</v>
-      </c>
-      <c r="D8" s="47">
-        <f>D41</f>
-        <v>2.0591999999999999E-2</v>
-      </c>
-      <c r="E8" s="48">
-        <f>E41</f>
-        <v>1.0001801599999999E-2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B9" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="C9" s="5"/>
-      <c r="D9" s="43">
-        <f>IF(D5+D6+D7+D8&lt;6%,6%,D5+D6+D41+D7)</f>
-        <v>8.8151999999999994E-2</v>
-      </c>
-      <c r="E9" s="43">
-        <f>IF(E5+E6+E41+D7+E8&lt;6%,6%,E5+E6+E41+D7)</f>
-        <v>9.3451801599999995E-2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="A11" s="17"/>
-      <c r="B11" s="18" t="s">
-        <v>38</v>
-      </c>
-      <c r="C11" s="19"/>
-      <c r="D11" s="19"/>
-      <c r="E11" s="15"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" s="20"/>
-      <c r="B12" s="21" t="s">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B8" s="43" t="s">
         <v>39</v>
       </c>
-      <c r="C12" s="22"/>
-      <c r="D12" s="44" t="str">
-        <f>D2</f>
+      <c r="D8" s="56">
+        <f>D45</f>
+        <v>1.7424000000000002E-2</v>
+      </c>
+      <c r="E8" s="57"/>
+      <c r="F8" s="42">
+        <f>F45</f>
+        <v>1.274E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B9" s="43" t="s">
+        <v>86</v>
+      </c>
+      <c r="D9" s="38">
+        <f>D37</f>
+        <v>2.8160000000000001E-2</v>
+      </c>
+      <c r="F9" s="42">
+        <f>F37</f>
+        <v>4.4966666666666662E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B10" s="54" t="s">
+        <v>95</v>
+      </c>
+      <c r="C10" s="5"/>
+      <c r="D10" s="39">
+        <f>IF(D7+D8+D9&lt;6%,6%,D7+D8+D9)</f>
+        <v>6.8143999999999996E-2</v>
+      </c>
+      <c r="E10" s="5"/>
+      <c r="F10" s="39">
+        <f>IF(F7+F8+F9&lt;6%,6%,F7+F8+F9)</f>
+        <v>7.6956666666666659E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A12" s="17"/>
+      <c r="B12" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="C12" s="19"/>
+      <c r="D12" s="61" t="str">
+        <f>D6</f>
         <v>US</v>
       </c>
-      <c r="E12" s="45" t="str">
-        <f>E2</f>
+      <c r="E12" s="61"/>
+      <c r="F12" s="4" t="str">
+        <f>F6</f>
         <v>China</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="20"/>
-      <c r="B13" s="22" t="s">
-        <v>40</v>
-      </c>
-      <c r="C13" s="23">
-        <f t="shared" ref="C13:C16" si="0">IF(LEFT(D13,1)="H",1,IF(LEFT(D13,1)="C",-1,0))</f>
-        <v>-1</v>
-      </c>
-      <c r="D13" s="24" t="s">
+      <c r="B13" s="21" t="s">
         <v>41</v>
       </c>
-      <c r="E13" s="24" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C13" s="22"/>
+      <c r="D13" s="59"/>
+      <c r="E13" s="22"/>
+      <c r="F13" s="60"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" s="20"/>
       <c r="B14" s="22" t="s">
         <v>42</v>
       </c>
       <c r="C14" s="23">
+        <f t="shared" ref="C14:E17" si="0">IF(LEFT(D14,1)="H",1,IF(LEFT(D14,1)="C",-1,0))</f>
+        <v>-1</v>
+      </c>
+      <c r="D14" s="24" t="s">
+        <v>43</v>
+      </c>
+      <c r="E14" s="23">
         <f t="shared" si="0"/>
         <v>-1</v>
       </c>
-      <c r="D14" s="25" t="s">
+      <c r="F14" s="24" t="s">
         <v>43</v>
       </c>
-      <c r="E14" s="25" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" s="20"/>
       <c r="B15" s="22" t="s">
         <v>44</v>
@@ -6258,80 +6464,100 @@
         <f t="shared" si="0"/>
         <v>-1</v>
       </c>
-      <c r="D15" s="26" t="s">
+      <c r="D15" s="25" t="s">
         <v>45</v>
       </c>
-      <c r="E15" s="26" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E15" s="23">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F15" s="25" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" s="20"/>
-      <c r="B16" s="20" t="s">
+      <c r="B16" s="22" t="s">
         <v>46</v>
       </c>
       <c r="C16" s="23">
         <f t="shared" si="0"/>
         <v>-1</v>
       </c>
-      <c r="D16" s="27" t="s">
+      <c r="D16" s="26" t="s">
         <v>47</v>
       </c>
-      <c r="E16" s="27" t="s">
+      <c r="E16" s="23">
+        <f t="shared" si="0"/>
+        <v>-1</v>
+      </c>
+      <c r="F16" s="26" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" s="20"/>
-      <c r="B17" s="28" t="s">
+      <c r="B17" s="20" t="s">
         <v>48</v>
       </c>
       <c r="C17" s="23">
-        <f>IF(LEFT(D17,1)="H",2,IF(LEFT(D17,1)="C",-1,0))</f>
+        <f t="shared" si="0"/>
         <v>-1</v>
       </c>
-      <c r="D17" s="29" t="str">
-        <f>IF(SUM(C13:C16)&gt;=3, "Hot", IF(SUM(C13:C16)&lt;=-3,"Cold", "Mixed"))</f>
+      <c r="D17" s="27" t="s">
+        <v>49</v>
+      </c>
+      <c r="E17" s="23">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F17" s="27" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A18" s="20"/>
+      <c r="B18" s="28" t="s">
+        <v>50</v>
+      </c>
+      <c r="C18" s="23">
+        <f>IF(LEFT(D18,1)="H",2,IF(LEFT(D18,1)="C",-1,0))</f>
+        <v>-1</v>
+      </c>
+      <c r="D18" s="29" t="str">
+        <f>IF(SUM(C14:C17)&gt;=3, "Hot", IF(SUM(C14:C17)&lt;=-3,"Cold", "Mixed"))</f>
         <v>Cold</v>
       </c>
-      <c r="E17" s="29" t="str">
-        <f>IF(SUM(D13:D16)&gt;=3, "Hot", IF(SUM(D13:D16)&lt;=-3,"Cold", "Mixed"))</f>
+      <c r="E18" s="23">
+        <f>IF(LEFT(F18,1)="H",2,IF(LEFT(F18,1)="C",-1,0))</f>
+        <v>0</v>
+      </c>
+      <c r="F18" s="29" t="str">
+        <f>IF(SUM(E14:E17)&gt;=3, "Hot", IF(SUM(E14:E17)&lt;=-3,"Cold", "Mixed"))</f>
         <v>Mixed</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A18" s="20"/>
-      <c r="B18" s="22" t="s">
-        <v>49</v>
-      </c>
-      <c r="C18" s="23">
-        <f t="shared" ref="C18:C21" si="1">IF(LEFT(D18,1)="H",1,IF(LEFT(D18,1)="C",-1,0))</f>
-        <v>-1</v>
-      </c>
-      <c r="D18" s="24" t="s">
-        <v>50</v>
-      </c>
-      <c r="E18" s="24" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" s="20"/>
       <c r="B19" s="22" t="s">
         <v>51</v>
       </c>
       <c r="C19" s="23">
+        <f t="shared" ref="C19:E22" si="1">IF(LEFT(D19,1)="H",1,IF(LEFT(D19,1)="C",-1,0))</f>
+        <v>-1</v>
+      </c>
+      <c r="D19" s="24" t="s">
+        <v>52</v>
+      </c>
+      <c r="E19" s="23">
         <f t="shared" si="1"/>
         <v>-1</v>
       </c>
-      <c r="D19" s="24" t="s">
+      <c r="F19" s="24" t="s">
         <v>52</v>
       </c>
-      <c r="E19" s="24" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" s="20"/>
       <c r="B20" s="22" t="s">
         <v>53</v>
@@ -6340,14 +6566,18 @@
         <f t="shared" si="1"/>
         <v>-1</v>
       </c>
-      <c r="D20" s="27" t="s">
+      <c r="D20" s="24" t="s">
         <v>54</v>
       </c>
-      <c r="E20" s="27" t="s">
+      <c r="E20" s="23">
+        <f t="shared" si="1"/>
+        <v>-1</v>
+      </c>
+      <c r="F20" s="24" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" s="20"/>
       <c r="B21" s="22" t="s">
         <v>55</v>
@@ -6359,61 +6589,77 @@
       <c r="D21" s="27" t="s">
         <v>56</v>
       </c>
-      <c r="E21" s="27" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E21" s="23">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F21" s="27" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" s="20"/>
-      <c r="B22" s="28" t="s">
+      <c r="B22" s="22" t="s">
         <v>57</v>
       </c>
       <c r="C22" s="23">
-        <f>IF(LEFT(D22,1)="H",2,IF(LEFT(D22,1)="C",-1,0))</f>
+        <f t="shared" si="1"/>
         <v>-1</v>
       </c>
-      <c r="D22" s="30" t="str">
-        <f>IF(SUM(C18:C21)&gt;=3, "Hot", IF(SUM(C18:C21)&lt;=-3,"Cold", "Mixed"))</f>
+      <c r="D22" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="E22" s="23">
+        <f t="shared" si="1"/>
+        <v>-1</v>
+      </c>
+      <c r="F22" s="27" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A23" s="20"/>
+      <c r="B23" s="28" t="s">
+        <v>59</v>
+      </c>
+      <c r="C23" s="23">
+        <f>IF(LEFT(D23,1)="H",2,IF(LEFT(D23,1)="C",-1,0))</f>
+        <v>-1</v>
+      </c>
+      <c r="D23" s="30" t="str">
+        <f>IF(SUM(C19:C22)&gt;=3, "Hot", IF(SUM(C19:C22)&lt;=-3,"Cold", "Mixed"))</f>
         <v>Cold</v>
       </c>
-      <c r="E22" s="30" t="str">
-        <f>IF(SUM(D18:D21)&gt;=3, "Hot", IF(SUM(D18:D21)&lt;=-3,"Cold", "Mixed"))</f>
-        <v>Mixed</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A23" s="20"/>
-      <c r="B23" s="22" t="s">
-        <v>58</v>
-      </c>
-      <c r="C23" s="23">
-        <f t="shared" ref="C23:C26" si="2">IF(LEFT(D23,1)="H",1,IF(LEFT(D23,1)="C",-1,0))</f>
+      <c r="E23" s="23">
+        <f>IF(LEFT(F23,1)="H",2,IF(LEFT(F23,1)="C",-1,0))</f>
         <v>-1</v>
       </c>
-      <c r="D23" s="24" t="s">
-        <v>59</v>
-      </c>
-      <c r="E23" s="24" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F23" s="30" t="str">
+        <f>IF(SUM(E19:E22)&gt;=3, "Hot", IF(SUM(E19:E22)&lt;=-3,"Cold", "Mixed"))</f>
+        <v>Cold</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" s="20"/>
       <c r="B24" s="22" t="s">
         <v>60</v>
       </c>
       <c r="C24" s="23">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="C24:E27" si="2">IF(LEFT(D24,1)="H",1,IF(LEFT(D24,1)="C",-1,0))</f>
         <v>-1</v>
       </c>
       <c r="D24" s="24" t="s">
         <v>61</v>
       </c>
-      <c r="E24" s="24" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E24" s="23">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="F24" s="24" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" s="20"/>
       <c r="B25" s="22" t="s">
         <v>62</v>
@@ -6425,11 +6671,15 @@
       <c r="D25" s="24" t="s">
         <v>63</v>
       </c>
-      <c r="E25" s="24" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E25" s="23">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F25" s="24" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" s="20"/>
       <c r="B26" s="22" t="s">
         <v>64</v>
@@ -6441,61 +6691,77 @@
       <c r="D26" s="24" t="s">
         <v>65</v>
       </c>
-      <c r="E26" s="24" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E26" s="23">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F26" s="24" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" s="20"/>
-      <c r="B27" s="28" t="s">
+      <c r="B27" s="22" t="s">
         <v>66</v>
       </c>
       <c r="C27" s="23">
-        <f>IF(LEFT(D27,1)="H",2,IF(LEFT(D27,1)="C",-1,0))</f>
+        <f t="shared" si="2"/>
         <v>-1</v>
       </c>
-      <c r="D27" s="30" t="str">
-        <f>IF(SUM(C23:C26)&gt;=3, "Hot", IF(SUM(C23:C26)&lt;=-3,"Cold", "Mixed"))</f>
+      <c r="D27" s="24" t="s">
+        <v>67</v>
+      </c>
+      <c r="E27" s="23">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F27" s="24" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A28" s="20"/>
+      <c r="B28" s="28" t="s">
+        <v>68</v>
+      </c>
+      <c r="C28" s="23">
+        <f>IF(LEFT(D28,1)="H",2,IF(LEFT(D28,1)="C",-1,0))</f>
+        <v>-1</v>
+      </c>
+      <c r="D28" s="30" t="str">
+        <f>IF(SUM(C24:C27)&gt;=3, "Hot", IF(SUM(C24:C27)&lt;=-3,"Cold", "Mixed"))</f>
         <v>Cold</v>
       </c>
-      <c r="E27" s="30" t="str">
-        <f>IF(SUM(D23:D26)&gt;=3, "Hot", IF(SUM(D23:D26)&lt;=-3,"Cold", "Mixed"))</f>
+      <c r="E28" s="23">
+        <f>IF(LEFT(F28,1)="H",2,IF(LEFT(F28,1)="C",-1,0))</f>
+        <v>0</v>
+      </c>
+      <c r="F28" s="30" t="str">
+        <f>IF(SUM(E24:E27)&gt;=3, "Hot", IF(SUM(E24:E27)&lt;=-3,"Cold", "Mixed"))</f>
         <v>Mixed</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A28" s="20"/>
-      <c r="B28" s="22" t="s">
-        <v>67</v>
-      </c>
-      <c r="C28" s="23">
-        <f t="shared" ref="C28:C31" si="3">IF(LEFT(D28,1)="H",1,IF(LEFT(D28,1)="C",-1,0))</f>
-        <v>-1</v>
-      </c>
-      <c r="D28" s="24" t="s">
-        <v>68</v>
-      </c>
-      <c r="E28" s="24" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" s="20"/>
       <c r="B29" s="22" t="s">
         <v>69</v>
       </c>
       <c r="C29" s="23">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="C29:E32" si="3">IF(LEFT(D29,1)="H",1,IF(LEFT(D29,1)="C",-1,0))</f>
         <v>-1</v>
       </c>
       <c r="D29" s="24" t="s">
         <v>70</v>
       </c>
-      <c r="E29" s="24" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E29" s="23">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="F29" s="24" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" s="20"/>
       <c r="B30" s="22" t="s">
         <v>71</v>
@@ -6507,238 +6773,347 @@
       <c r="D30" s="24" t="s">
         <v>72</v>
       </c>
-      <c r="E30" s="24" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E30" s="23">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="F30" s="24" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" s="20"/>
       <c r="B31" s="22" t="s">
         <v>73</v>
       </c>
       <c r="C31" s="23">
         <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="D31" s="24" t="s">
+        <v>88</v>
+      </c>
+      <c r="E31" s="23">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="F31" s="24" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A32" s="20"/>
+      <c r="B32" s="22" t="s">
+        <v>74</v>
+      </c>
+      <c r="C32" s="23">
+        <f t="shared" si="3"/>
         <v>-1</v>
       </c>
-      <c r="D31" s="24" t="s">
-        <v>74</v>
-      </c>
-      <c r="E31" s="24" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A32" s="20"/>
-      <c r="B32" s="28" t="s">
+      <c r="D32" s="24" t="s">
+        <v>91</v>
+      </c>
+      <c r="E32" s="23">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="F32" s="24" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A33" s="20"/>
+      <c r="B33" s="28" t="s">
         <v>75</v>
       </c>
-      <c r="C32" s="23">
-        <f>IF(LEFT(D32,1)="H",2,IF(LEFT(D32,1)="C",-1,0))</f>
+      <c r="C33" s="23">
+        <f>IF(LEFT(D33,1)="H",2,IF(LEFT(D33,1)="C",-1,0))</f>
         <v>-1</v>
       </c>
-      <c r="D32" s="30" t="str">
-        <f>IF(SUM(C28:C31)&gt;=3, "Hot", IF(SUM(C28:C31)&lt;=-3,"Cold", "Mixed"))</f>
+      <c r="D33" s="30" t="str">
+        <f>IF(SUM(C29:C32)&gt;=3, "Hot", IF(SUM(C29:C32)&lt;=-3,"Cold", "Mixed"))</f>
         <v>Cold</v>
       </c>
-      <c r="E32" s="30" t="str">
-        <f>IF(SUM(D28:D31)&gt;=3, "Hot", IF(SUM(D28:D31)&lt;=-3,"Cold", "Mixed"))</f>
+      <c r="E33" s="23">
+        <f>IF(LEFT(F33,1)="H",2,IF(LEFT(F33,1)="C",-1,0))</f>
+        <v>0</v>
+      </c>
+      <c r="F33" s="30" t="str">
+        <f>IF(SUM(E29:E32)&gt;=3, "Hot", IF(SUM(E29:E32)&lt;=-3,"Cold", "Mixed"))</f>
         <v>Mixed</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A33" s="20"/>
-      <c r="B33" s="36" t="s">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A34" s="20"/>
+      <c r="B34" s="34" t="s">
         <v>76</v>
       </c>
-      <c r="C33" s="31">
-        <f>SUM(C17,C22,C27,C32)</f>
+      <c r="C34" s="50">
+        <f>SUM(C18,C23,C28,C33)</f>
         <v>-4</v>
       </c>
-      <c r="D33" s="33" t="str">
-        <f>IF(OR(C33=4,C33=-4),"Strongly disagree",IF(C33=0,"Strongly agree",IF(OR(C33=1,C33=-1),"agree",IF(OR(C33=3,C33=-3),"disagree","unclear"))))</f>
-        <v>Strongly disagree</v>
-      </c>
-      <c r="E33" s="33" t="str">
-        <f>IF(OR(D33=4,D33=-4),"Strongly disagree",IF(D33=0,"Strongly agree",IF(OR(D33=1,D33=-1),"agree",IF(OR(D33=3,D33=-3),"disagree","unclear"))))</f>
-        <v>unclear</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A34" s="20"/>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D34" s="32" t="str">
+        <f>IF(OR(C34=4,C34=-4),"In extreme",IF(C34=0,"In equilibrium",IF(OR(C34&gt;0),"Relatively optimistic","Relatively pessimistic")))</f>
+        <v>In extreme</v>
+      </c>
+      <c r="E34" s="50">
+        <f>SUM(E18,E23,E28,E33)</f>
+        <v>-1</v>
+      </c>
+      <c r="F34" s="32" t="str">
+        <f>IF(OR(E34=4,E34=-4),"In extreme",IF(E34=0,"In equilibrium",IF(OR(E34&gt;0),"Relatively optimistic","Relatively pessimistic")))</f>
+        <v>Relatively pessimistic</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35" s="20"/>
-      <c r="B35" s="21" t="s">
+      <c r="B35" s="22" t="s">
+        <v>84</v>
+      </c>
+      <c r="D35" s="65">
+        <f>D3/1.5</f>
+        <v>2.5599999999999998E-2</v>
+      </c>
+      <c r="E35" s="51"/>
+      <c r="F35" s="65">
+        <f>(F3+D3)/1.5</f>
+        <v>4.4966666666666662E-2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A36" s="20"/>
+      <c r="B36" s="22" t="s">
+        <v>97</v>
+      </c>
+      <c r="D36" s="66">
+        <v>0</v>
+      </c>
+      <c r="E36" s="67"/>
+      <c r="F36" s="68"/>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A37" s="20"/>
+      <c r="B37" s="49" t="s">
+        <v>85</v>
+      </c>
+      <c r="C37" s="51">
+        <f>IF(C34=4,1.2, IF(C34=-4,1.1,1))</f>
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="D37" s="62">
+        <f>D35*C37*(1+D36)</f>
+        <v>2.8160000000000001E-2</v>
+      </c>
+      <c r="E37" s="64">
+        <f>IF(E34=4,1.2, IF(E34=-4,1.1,1))</f>
+        <v>1</v>
+      </c>
+      <c r="F37" s="62">
+        <f>F35*E37*(1+D36)</f>
+        <v>4.4966666666666662E-2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A38" s="20"/>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A39" s="20"/>
+      <c r="B39" s="21" t="s">
         <v>77</v>
       </c>
-      <c r="C35" s="20"/>
-      <c r="D35" s="46" t="s">
-        <v>29</v>
-      </c>
-      <c r="E35" s="46" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A36" s="20"/>
-      <c r="B36" s="20" t="s">
+      <c r="C39" s="20"/>
+      <c r="D39" s="41" t="s">
+        <v>35</v>
+      </c>
+      <c r="E39" s="20"/>
+      <c r="F39" s="41" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A40" s="20"/>
+      <c r="B40" s="20" t="s">
         <v>78</v>
       </c>
-      <c r="C36" s="38">
-        <f>IF(LEFT(D36,1)="H",2,IF(LEFT(D36,1)="C",0,1))</f>
-        <v>2</v>
-      </c>
-      <c r="D36" s="27" t="s">
+      <c r="C40" s="36">
+        <f>IF(LEFT(D40,1)="H",2,IF(LEFT(D40,1)="C",0,1))</f>
+        <v>0</v>
+      </c>
+      <c r="D40" s="27" t="s">
+        <v>96</v>
+      </c>
+      <c r="E40" s="36">
+        <f>IF(LEFT(F40,1)="H",2,IF(LEFT(F40,1)="C",0,1))</f>
+        <v>0</v>
+      </c>
+      <c r="F40" s="27" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B41" s="20" t="s">
         <v>79</v>
       </c>
-      <c r="E36" s="27" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B37" s="20" t="s">
-        <v>80</v>
-      </c>
-      <c r="C37" s="38">
-        <f t="shared" ref="C37:C40" si="4">IF(LEFT(D37,1)="H",2,IF(LEFT(D37,1)="C",0,1))</f>
+      <c r="C41" s="36">
+        <f t="shared" ref="C41:E44" si="4">IF(LEFT(D41,1)="H",2,IF(LEFT(D41,1)="C",0,1))</f>
         <v>1</v>
       </c>
-      <c r="D37" s="32" t="str">
+      <c r="D41" s="31" t="str">
         <f>IF(D4&gt;=3%, "Hot - High", IF(D4&lt;=1.5%, "Cold - Low", "Mixed - Dormant"))</f>
         <v>Mixed - Dormant</v>
       </c>
-      <c r="E37" s="32" t="str">
-        <f>IF(E4&gt;=3%, "Hot - High", IF(E4&lt;=1.5%, "Cold - Low", "Mixed - Dormant"))</f>
-        <v>Cold - Low</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B38" s="20" t="s">
-        <v>81</v>
-      </c>
-      <c r="C38" s="38">
+      <c r="E41" s="36">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="D38" s="32" t="str">
-        <f>D14</f>
-        <v>Cold - Negative</v>
-      </c>
-      <c r="E38" s="32" t="str">
-        <f>E14</f>
-        <v>Cold - Negative</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B39" s="20" t="s">
-        <v>82</v>
-      </c>
-      <c r="C39" s="38">
+      <c r="F41" s="31" t="str">
+        <f>IF(F4&gt;=3%, "Hot - High", IF(F4&lt;=1.5%, "Cold - Low", "Mixed - Dormant"))</f>
+        <v>Cold - Low</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B42" s="20" t="s">
+        <v>80</v>
+      </c>
+      <c r="C42" s="36">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="D39" s="32" t="str">
-        <f>D20</f>
-        <v>Cold - High</v>
-      </c>
-      <c r="E39" s="32" t="str">
-        <f>E20</f>
-        <v>Cold - High</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B40" s="20" t="s">
-        <v>83</v>
-      </c>
-      <c r="C40" s="38">
+      <c r="D42" s="31" t="str">
+        <f>D15</f>
+        <v>Cold - Negative</v>
+      </c>
+      <c r="E42" s="36">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="F42" s="31" t="str">
+        <f>F15</f>
+        <v>Hot - Positive</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B43" s="20" t="s">
+        <v>81</v>
+      </c>
+      <c r="C43" s="36">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="D40" s="32" t="str">
+      <c r="D43" s="31" t="str">
         <f>D21</f>
+        <v>Cold - High</v>
+      </c>
+      <c r="E43" s="36">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="F43" s="31" t="str">
+        <f>F21</f>
+        <v>Mixed</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B44" s="20" t="s">
+        <v>82</v>
+      </c>
+      <c r="C44" s="36">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="D44" s="31" t="str">
+        <f>D22</f>
         <v>Cold - Wide</v>
       </c>
-      <c r="E40" s="32" t="str">
-        <f>E21</f>
+      <c r="E44" s="36">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="F44" s="31" t="str">
+        <f>F22</f>
         <v>Cold - Wide</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B41" s="37" t="s">
-        <v>84</v>
-      </c>
-      <c r="C41" s="35">
-        <f>SUM(C36:C40)/10</f>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B45" s="35" t="s">
+        <v>83</v>
+      </c>
+      <c r="C45" s="52">
+        <f>SUM(C40:C44)/10</f>
+        <v>0.1</v>
+      </c>
+      <c r="D45" s="62">
+        <f>D4*(1+C45)</f>
+        <v>1.7424000000000002E-2</v>
+      </c>
+      <c r="E45" s="63">
+        <f>SUM(E40:E44)/10</f>
         <v>0.3</v>
       </c>
-      <c r="D41" s="33">
-        <f>D4*(1+C41)</f>
-        <v>2.0591999999999999E-2</v>
-      </c>
-      <c r="E41" s="33">
-        <f>E4*(1+D41)</f>
-        <v>1.0001801599999999E-2</v>
+      <c r="F45" s="62">
+        <f>F4*(1+E45)</f>
+        <v>1.274E-2</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="D36:F36"/>
   </mergeCells>
   <dataValidations count="19">
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D38:E40" xr:uid="{1162B5FC-A49C-4643-AD1D-C21129BF3948}"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D16:E16" xr:uid="{DCF9736D-3C9B-4279-B56F-4C2003DB4929}">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D42:D44 F42:F44" xr:uid="{1162B5FC-A49C-4643-AD1D-C21129BF3948}"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D17 F17" xr:uid="{DCF9736D-3C9B-4279-B56F-4C2003DB4929}">
       <formula1>"Hot - Minimal, Cold - Rising, Mixed"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D36:E36" xr:uid="{1E460FDF-FE88-44E4-A4A8-C40EF242A498}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D40 F40" xr:uid="{1E460FDF-FE88-44E4-A4A8-C40EF242A498}">
       <formula1>"Hot - Stimulative, Cold - Tightening, Mixed"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="D21:E21" xr:uid="{05972E92-5CCB-4538-80C0-0E3C4DAA650C}">
+    <dataValidation type="list" allowBlank="1" sqref="D22 F22" xr:uid="{05972E92-5CCB-4538-80C0-0E3C4DAA650C}">
       <formula1>"Hot - Narrow,Cold - Wide,Mixed"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="D18:E18" xr:uid="{E29A466E-8A51-4B09-81F0-9E467356D8D5}">
+    <dataValidation type="list" allowBlank="1" sqref="D19 F19" xr:uid="{E29A466E-8A51-4B09-81F0-9E467356D8D5}">
       <formula1>"Hot - Plentiful,Cold - Scarce,Mixed"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="D29:E29" xr:uid="{A3F1DC8E-57BA-4F25-894E-D6759F030FDF}">
+    <dataValidation type="list" allowBlank="1" sqref="D30 F30" xr:uid="{A3F1DC8E-57BA-4F25-894E-D6759F030FDF}">
       <formula1>"Hot - Hard to gain entry,Cold - Open to anyone,Hot - 
 New ones daily,Cold - Only the best can raise money,Hot - GP hold the cards on terms,Cold - LP have bargaining power,Mixed"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="D13:E13" xr:uid="{D399A8E6-6D95-4A97-94AE-BF73E0CF82C3}">
+    <dataValidation type="list" allowBlank="1" sqref="D14 F14" xr:uid="{D399A8E6-6D95-4A97-94AE-BF73E0CF82C3}">
       <formula1>"Hot - Vibrant,Cold - Sluggish,Mixed"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="D15:E15" xr:uid="{8B23EEE0-8D29-45A7-BABD-272B21016758}">
+    <dataValidation type="list" allowBlank="1" sqref="D16 F16" xr:uid="{8B23EEE0-8D29-45A7-BABD-272B21016758}">
       <formula1>"Hot - Eager,Cold - Reticent,Mixed"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="D25:E25" xr:uid="{3F44EEB6-0601-492A-A711-71005020FA19}">
+    <dataValidation type="list" allowBlank="1" sqref="D26 F26" xr:uid="{3F44EEB6-0601-492A-A711-71005020FA19}">
       <formula1>"Hot - Optimistic,Cold - Pessimistic,Hot - Sanguine,Cold - Distressed,Hot - Eager to buy,Cold - Uninterested in buying,Mixed"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="D24:E24" xr:uid="{01BCA93F-C7F4-4445-82F8-F61AC8C6BEF8}">
+    <dataValidation type="list" allowBlank="1" sqref="D25 F25" xr:uid="{01BCA93F-C7F4-4445-82F8-F61AC8C6BEF8}">
       <formula1>"Hot - High,Cold - Low,Mixed"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="D26:E26" xr:uid="{EDC56A00-C31B-4484-B8FC-6A57C3B6D758}">
+    <dataValidation type="list" allowBlank="1" sqref="D27 F27" xr:uid="{EDC56A00-C31B-4484-B8FC-6A57C3B6D758}">
       <formula1>"Hot - Few,Cold - Many,Mixed"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="D31:E31" xr:uid="{4182A36E-CA23-4874-A9A3-7EBFE34FF04E}">
+    <dataValidation type="list" allowBlank="1" sqref="D32 F32" xr:uid="{4182A36E-CA23-4874-A9A3-7EBFE34FF04E}">
       <formula1>"Hot - Aggressiveness,Cold - Caution and discipline,Hot - Broad reach,Cold - ""It's uninvestable"",Mixed"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="D23:E23" xr:uid="{50DA1868-046D-4965-A766-6872EAF3DAE7}">
+    <dataValidation type="list" allowBlank="1" sqref="D24 F24" xr:uid="{50DA1868-046D-4965-A766-6872EAF3DAE7}">
       <formula1>"Hot - Happy to hold,Cold - Rushing for the exits,Mixed"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="D28:E28" xr:uid="{2E90ABF5-27B6-45EA-924A-726A450132AD}">
+    <dataValidation type="list" allowBlank="1" sqref="D29 F29" xr:uid="{2E90ABF5-27B6-45EA-924A-726A450132AD}">
       <formula1>"Hot - Average person joins the market,Cold - ""Worse is yet to come"",Mixed - ""Market has bottomed"""</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="D30:E30" xr:uid="{CE58FBAB-05BA-429E-979A-A80495C7634A}">
+    <dataValidation type="list" allowBlank="1" sqref="D31 F31" xr:uid="{CE58FBAB-05BA-429E-979A-A80495C7634A}">
       <formula1>"Hot - Strong,Cold - Weak,Mixed"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="D14:E14" xr:uid="{80AB7CF9-33FA-49A2-857A-A16511DD9778}">
+    <dataValidation type="list" allowBlank="1" sqref="D15 F15" xr:uid="{80AB7CF9-33FA-49A2-857A-A16511DD9778}">
       <formula1>"Hot - Positive,Cold - Negative,Mixed"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="D19:E19" xr:uid="{AF2B28BD-3B2E-4C4F-9341-2D3DF85E4B51}">
+    <dataValidation type="list" allowBlank="1" sqref="D20 F20" xr:uid="{AF2B28BD-3B2E-4C4F-9341-2D3DF85E4B51}">
       <formula1>"Hot - Easy,Cold - Restrictive,Mixed"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="D20:E20" xr:uid="{CB91B3B3-F107-40CA-9A38-987E11E74D07}">
+    <dataValidation type="list" allowBlank="1" sqref="D21 F21" xr:uid="{CB91B3B3-F107-40CA-9A38-987E11E74D07}">
       <formula1>"Hot - Low,Cold - High,Mixed"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" sqref="D33:E33" xr:uid="{EA6F9DE9-1D2B-41CE-B86F-59C772E5B0CA}"/>
+    <dataValidation allowBlank="1" sqref="D34:D36 F34:F35" xr:uid="{EA6F9DE9-1D2B-41CE-B86F-59C772E5B0CA}"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
